--- a/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
+++ b/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy94\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C071264D-53C1-44DC-AAA0-4F5F996D9F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30615A63-1A8E-4FD6-AF80-44E1D8FD6B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6C2B6FC-ED23-41F9-89D8-E92A8C2587DC}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="218">
   <si>
     <t>STT</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Tên học phần (Tiếng Việt)</t>
   </si>
   <si>
-    <t>Tên học phần (Tiếng Anh)</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
@@ -83,6 +80,588 @@
     <t>DA</t>
   </si>
   <si>
+    <t>DCT0080</t>
+  </si>
+  <si>
+    <t>Triết học Mác Lênin</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Không </t>
+  </si>
+  <si>
+    <t> Không</t>
+  </si>
+  <si>
+    <t>DCT0090</t>
+  </si>
+  <si>
+    <t>Kinh tế chính trị Mác Lênin</t>
+  </si>
+  <si>
+    <t>DCT0100</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội khoa học</t>
+  </si>
+  <si>
+    <t>DCT0030</t>
+  </si>
+  <si>
+    <t>Tư tưởng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>DCT0110</t>
+  </si>
+  <si>
+    <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+  </si>
+  <si>
+    <t>DCT0100; DCT0030</t>
+  </si>
+  <si>
+    <t>DTA0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 1 </t>
+  </si>
+  <si>
+    <t>DTA0610</t>
+  </si>
+  <si>
+    <t>Áp dụng theo email phòng Đào tạo ngày 13/08/2021</t>
+  </si>
+  <si>
+    <t>DTA0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 2 </t>
+  </si>
+  <si>
+    <t>DTA0015 </t>
+  </si>
+  <si>
+    <t>DTA0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 3 </t>
+  </si>
+  <si>
+    <t>DTA0024 </t>
+  </si>
+  <si>
+    <t>DTA0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 4 </t>
+  </si>
+  <si>
+    <t>DTA0034 </t>
+  </si>
+  <si>
+    <t>DTA0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 5 </t>
+  </si>
+  <si>
+    <t>DTA0044 </t>
+  </si>
+  <si>
+    <t>DTA0590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 6 </t>
+  </si>
+  <si>
+    <t>DTA0121 </t>
+  </si>
+  <si>
+    <t>DTA0600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 7 </t>
+  </si>
+  <si>
+    <t>DTA0590 </t>
+  </si>
+  <si>
+    <t>DPL0010</t>
+  </si>
+  <si>
+    <t>Pháp luật đại cương</t>
+  </si>
+  <si>
+    <t>Không  </t>
+  </si>
+  <si>
+    <t>DMT0020</t>
+  </si>
+  <si>
+    <t>Môi trường và con người</t>
+  </si>
+  <si>
+    <t>DTN0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toán cao cấp </t>
+  </si>
+  <si>
+    <t>DTN0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hành Toán cao cấp </t>
+  </si>
+  <si>
+    <t>DTN0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại số tuyến tính </t>
+  </si>
+  <si>
+    <t>DTN0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hành Đại số tuyến tính </t>
+  </si>
+  <si>
+    <t>DVL0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vật lý đại cương 1 </t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>DVL0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vật lý đại cương 2 </t>
+  </si>
+  <si>
+    <t>DTN0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toán rời rạc </t>
+  </si>
+  <si>
+    <t>DIT0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn Công nghệ thông tin </t>
+  </si>
+  <si>
+    <t>DIT0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở lập trình </t>
+  </si>
+  <si>
+    <t>DIT0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ năng nghề nghiệp </t>
+  </si>
+  <si>
+    <t>DGT0010</t>
+  </si>
+  <si>
+    <t>Giáo dục thể chất (1)</t>
+  </si>
+  <si>
+    <t>BB/KTL</t>
+  </si>
+  <si>
+    <t>DGT0020</t>
+  </si>
+  <si>
+    <t>Giáo dục thể chất (2)</t>
+  </si>
+  <si>
+    <t>DQP0021</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 1</t>
+  </si>
+  <si>
+    <t>DQP0040</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 2</t>
+  </si>
+  <si>
+    <t>DQP0050</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 3</t>
+  </si>
+  <si>
+    <t>GDQP 1,2</t>
+  </si>
+  <si>
+    <t>DQP0060</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 4</t>
+  </si>
+  <si>
+    <t>DIT0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ thuật lập trình </t>
+  </si>
+  <si>
+    <t>DIT0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình hướng đối tượng </t>
+  </si>
+  <si>
+    <t>DIT0060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu trúc dữ liệu và giải thuật </t>
+  </si>
+  <si>
+    <t>DIT0070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở dữ liệu </t>
+  </si>
+  <si>
+    <t>DIT0081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn Mạng máy tính và điện toán đám mây </t>
+  </si>
+  <si>
+    <t>DIT0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các nền tảng phát triển phần mềm </t>
+  </si>
+  <si>
+    <t>DIT0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ điều hành và lập trình Linux </t>
+  </si>
+  <si>
+    <t>DIT0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng Java </t>
+  </si>
+  <si>
+    <t>DIT0190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng Web </t>
+  </si>
+  <si>
+    <t>DIT0130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ninh Mạng máy tính </t>
+  </si>
+  <si>
+    <t>DIT0140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ Quản trị Cơ sở dữ liệu </t>
+  </si>
+  <si>
+    <t>DIT0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý Dự án CNTT </t>
+  </si>
+  <si>
+    <t>DIT0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng di động </t>
+  </si>
+  <si>
+    <t>DIT0530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý và phát triển các hệ thống thông tin </t>
+  </si>
+  <si>
+    <t>DIT0540</t>
+  </si>
+  <si>
+    <t>Lập trình Python nâng cao</t>
+  </si>
+  <si>
+    <t>DIT0550</t>
+  </si>
+  <si>
+    <t>Nhập môn Phân tích Dữ liệu và Học sâu</t>
+  </si>
+  <si>
+    <t>DIT0160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn Công nghệ phần mềm </t>
+  </si>
+  <si>
+    <t>DTH0161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ thuật lấy yêu cầu </t>
+  </si>
+  <si>
+    <t>DTH0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân tích và thiết kế hệ thống theo Hướng đối tượng </t>
+  </si>
+  <si>
+    <t>DTH0122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm thử phần mềm </t>
+  </si>
+  <si>
+    <t>DIT0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình Web nâng cao </t>
+  </si>
+  <si>
+    <t>DIT0260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý dự án phần mềm </t>
+  </si>
+  <si>
+    <t>DTH0141; DTH0122</t>
+  </si>
+  <si>
+    <t>DTN0073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xác xuất thống kê ứng dụng </t>
+  </si>
+  <si>
+    <t>DIT0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn phân tích dữ liệu lớn </t>
+  </si>
+  <si>
+    <t>DIT0350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn Trí tuệ nhân tạo </t>
+  </si>
+  <si>
+    <t>DIT0360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn học máy </t>
+  </si>
+  <si>
+    <t>DIT0370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các hệ hỗ trợ ra quyết định </t>
+  </si>
+  <si>
+    <t>DIT0380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số hóa và quản trị thông tin số </t>
+  </si>
+  <si>
+    <t>DIT0420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mạng máy tính nâng cao </t>
+  </si>
+  <si>
+    <t>DIT0450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản trị Mạng </t>
+  </si>
+  <si>
+    <t> Không </t>
+  </si>
+  <si>
+    <t>DIT0460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ninh Hạ tầng mạng </t>
+  </si>
+  <si>
+    <t>DIT0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ninh Ứng dụng Web </t>
+  </si>
+  <si>
+    <t>DIT0210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình Hệ thống nhúng và Internet vạn vật </t>
+  </si>
+  <si>
+    <t>DIT0320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã hóa và an toàn dữ liệu </t>
+  </si>
+  <si>
+    <t>DIT0180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình di động nâng cao </t>
+  </si>
+  <si>
+    <t>DIT0270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế kiến trúc phần mềm </t>
+  </si>
+  <si>
+    <t>DIT0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng Game </t>
+  </si>
+  <si>
+    <t>DIT0280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm thử tự động </t>
+  </si>
+  <si>
+    <t>DIT0440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý chất lượng phần mềm </t>
+  </si>
+  <si>
+    <t>DIT0160; DTH0122</t>
+  </si>
+  <si>
+    <t>DIT0330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thương mại điện tử và mạng xã hội </t>
+  </si>
+  <si>
+    <t>DIT0340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiếp thị trực tuyến và tối ưu hóa máy tìm kiếm </t>
+  </si>
+  <si>
+    <t>DIT0120</t>
+  </si>
+  <si>
+    <t>Lập trình Java nâng cao</t>
+  </si>
+  <si>
+    <t>DIT0240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình tính toán song song </t>
+  </si>
+  <si>
+    <t>DIT0290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn xử lý ảnh số </t>
+  </si>
+  <si>
+    <t>DIT0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồ họa và thị giác máy tính </t>
+  </si>
+  <si>
+    <t>DIT0480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ninh Mạng không dây </t>
+  </si>
+  <si>
+    <t>DIT0490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ninh nhân sự, định danh và chứng thực </t>
+  </si>
+  <si>
+    <t>DIT0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm thử An ninh hệ thống mạng </t>
+  </si>
+  <si>
+    <t>DIT0510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng mạng </t>
+  </si>
+  <si>
+    <t>DIT0520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế và phân tích mạng </t>
+  </si>
+  <si>
+    <t>DIT0390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồ án Thực tập 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Không </t>
+  </si>
+  <si>
+    <t>DIT0400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồ án Thực tập 2 </t>
+  </si>
+  <si>
+    <t>Đồ án Thực tập 1 (Internship Project 1)</t>
+  </si>
+  <si>
+    <t>DIT0410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoá luận tốt nghiệp </t>
+  </si>
+  <si>
+    <t>Hoàn thành 06 học phần chuyên ngành bắt buộc </t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>CSN</t>
+  </si>
+  <si>
+    <t>CN_CNPM</t>
+  </si>
+  <si>
+    <t>CN_CNDL</t>
+  </si>
+  <si>
+    <t>CN_ANM</t>
+  </si>
+  <si>
+    <t>TC_CN</t>
+  </si>
+  <si>
     <t>Bắt buộc/ Tự chọn</t>
   </si>
   <si>
@@ -90,13 +669,43 @@
   </si>
   <si>
     <t>Mã loại kiến thức</t>
+  </si>
+  <si>
+    <t>Đại cương</t>
+  </si>
+  <si>
+    <t>DCKTL</t>
+  </si>
+  <si>
+    <t>Đại cương không tích luỹ</t>
+  </si>
+  <si>
+    <t>Cơ sở ngành</t>
+  </si>
+  <si>
+    <t>Chuyên ngành</t>
+  </si>
+  <si>
+    <t>Chuyên ngành Công nghệ Phần mềm</t>
+  </si>
+  <si>
+    <t>Chuyên ngành Công nghệ Dữ liệu</t>
+  </si>
+  <si>
+    <t>Chuyên ngành An ninh Mạng và IoT</t>
+  </si>
+  <si>
+    <t>Các môn tự chọn chuyên ngành</t>
+  </si>
+  <si>
+    <t>Thực tập tốt nghiệp/Khóa luận - Đồ án tốt nghiệp/Học phần tốt nghiệp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +726,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +757,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,11 +823,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,10 +925,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,11 +1010,103 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC729"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC729"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC729"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -619,10 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE44191-4F7D-454A-9855-FE690642DDD6}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,81 +1520,3497 @@
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="13" width="24.21875" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="5" style="1" customWidth="1"/>
+    <col min="5" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>30</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>30</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45</v>
+      </c>
+      <c r="F22" s="5">
+        <v>30</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>30</v>
+      </c>
+      <c r="F23" s="5">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>45</v>
+      </c>
+      <c r="F24" s="5">
+        <v>30</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="24">
+        <v>2</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>60</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="24">
+        <v>2</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>60</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="27">
+        <v>2</v>
+      </c>
+      <c r="E28" s="27">
+        <v>37</v>
+      </c>
+      <c r="F28" s="27">
+        <v>8</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2</v>
+      </c>
+      <c r="E29" s="27">
+        <v>22</v>
+      </c>
+      <c r="F29" s="27">
+        <v>8</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="27">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="E30" s="27">
         <v>14</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="F30" s="27">
+        <v>16</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="27">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27">
+        <v>4</v>
+      </c>
+      <c r="F31" s="27">
+        <v>56</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5">
+        <v>30</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="J32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5">
+        <v>30</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5">
+        <v>30</v>
+      </c>
+      <c r="F34" s="5">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>30</v>
+      </c>
+      <c r="F35" s="5">
+        <v>30</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5">
+        <v>30</v>
+      </c>
+      <c r="F36" s="5">
+        <v>30</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3</v>
+      </c>
+      <c r="E37" s="5">
+        <v>30</v>
+      </c>
+      <c r="F37" s="5">
+        <v>30</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5">
+        <v>30</v>
+      </c>
+      <c r="F38" s="5">
+        <v>30</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5">
+        <v>30</v>
+      </c>
+      <c r="F39" s="5">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8">
+        <v>30</v>
+      </c>
+      <c r="F40" s="8">
+        <v>30</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5">
+        <v>30</v>
+      </c>
+      <c r="F41" s="5">
+        <v>30</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
+        <v>30</v>
+      </c>
+      <c r="F42" s="5">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>30</v>
+      </c>
+      <c r="F43" s="5">
+        <v>30</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>30</v>
+      </c>
+      <c r="F44" s="7">
+        <v>30</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>30</v>
+      </c>
+      <c r="F45" s="7">
+        <v>30</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="12">
+        <v>3</v>
+      </c>
+      <c r="E46" s="5">
+        <v>30</v>
+      </c>
+      <c r="F46" s="5">
+        <v>30</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="12">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5">
+        <v>30</v>
+      </c>
+      <c r="F47" s="5">
+        <v>30</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5">
+        <v>30</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3</v>
+      </c>
+      <c r="E49" s="5">
+        <v>30</v>
+      </c>
+      <c r="F49" s="5">
+        <v>30</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L49" s="22"/>
+      <c r="M49" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5">
+        <v>30</v>
+      </c>
+      <c r="F50" s="5">
+        <v>30</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L50" s="22"/>
+      <c r="M50" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5">
+        <v>30</v>
+      </c>
+      <c r="F51" s="5">
+        <v>30</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L51" s="22"/>
+      <c r="M51" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5">
+        <v>30</v>
+      </c>
+      <c r="F52" s="5">
+        <v>30</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="10">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8">
+        <v>30</v>
+      </c>
+      <c r="F53" s="8">
+        <v>30</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L53" s="22"/>
+      <c r="M53" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5">
+        <v>30</v>
+      </c>
+      <c r="F54" s="5">
+        <v>30</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5">
+        <v>30</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3</v>
+      </c>
+      <c r="E56" s="5">
+        <v>30</v>
+      </c>
+      <c r="F56" s="5">
+        <v>30</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5">
+        <v>30</v>
+      </c>
+      <c r="F57" s="5">
+        <v>30</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5">
+        <v>30</v>
+      </c>
+      <c r="F58" s="5">
+        <v>30</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L58" s="4"/>
+      <c r="M58" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5">
+        <v>30</v>
+      </c>
+      <c r="F59" s="5">
+        <v>30</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="M59" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
+        <v>59</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="12">
+        <v>3</v>
+      </c>
+      <c r="E60" s="12">
+        <v>30</v>
+      </c>
+      <c r="F60" s="12">
+        <v>30</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="12">
+        <v>3</v>
+      </c>
+      <c r="E61" s="12">
+        <v>30</v>
+      </c>
+      <c r="F61" s="12">
+        <v>30</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="12">
+        <v>3</v>
+      </c>
+      <c r="E62" s="12">
+        <v>30</v>
+      </c>
+      <c r="F62" s="12">
+        <v>30</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="12">
+        <v>3</v>
+      </c>
+      <c r="E63" s="12">
+        <v>30</v>
+      </c>
+      <c r="F63" s="12">
+        <v>30</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>63</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="12">
+        <v>3</v>
+      </c>
+      <c r="E64" s="12">
+        <v>30</v>
+      </c>
+      <c r="F64" s="12">
+        <v>30</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>64</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="12">
+        <v>3</v>
+      </c>
+      <c r="E65" s="12">
+        <v>30</v>
+      </c>
+      <c r="F65" s="12">
+        <v>30</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5">
+        <v>30</v>
+      </c>
+      <c r="F66" s="5">
+        <v>30</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="10">
+        <v>3</v>
+      </c>
+      <c r="E67" s="8">
+        <v>30</v>
+      </c>
+      <c r="F67" s="8">
+        <v>30</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L67" s="22"/>
+      <c r="M67" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5">
+        <v>30</v>
+      </c>
+      <c r="F68" s="5">
+        <v>30</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+      <c r="E69" s="5">
+        <v>30</v>
+      </c>
+      <c r="F69" s="5">
+        <v>30</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L69" s="4"/>
+      <c r="M69" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5">
+        <v>30</v>
+      </c>
+      <c r="F70" s="5">
+        <v>30</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L70" s="4"/>
+      <c r="M70" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5">
+        <v>30</v>
+      </c>
+      <c r="F71" s="5">
+        <v>30</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L71" s="4"/>
+      <c r="M71" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3</v>
+      </c>
+      <c r="E72" s="5">
+        <v>30</v>
+      </c>
+      <c r="F72" s="5">
+        <v>30</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="M72" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
+      <c r="E73" s="7">
+        <v>30</v>
+      </c>
+      <c r="F73" s="7">
+        <v>30</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5">
+        <v>30</v>
+      </c>
+      <c r="F74" s="5">
+        <v>30</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L75" s="4"/>
+      <c r="M75" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="5">
+        <v>3</v>
+      </c>
+      <c r="E76" s="5">
+        <v>30</v>
+      </c>
+      <c r="F76" s="5">
+        <v>30</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L76" s="4"/>
+      <c r="M76" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" s="4"/>
+      <c r="M77" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L78" s="4"/>
+      <c r="M78" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N78" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="12">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12">
+        <v>30</v>
+      </c>
+      <c r="F79" s="12">
+        <v>30</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L79" s="16"/>
+      <c r="M79" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N79" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3</v>
+      </c>
+      <c r="E80" s="5">
+        <v>30</v>
+      </c>
+      <c r="F80" s="5">
+        <v>30</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L80" s="16"/>
+      <c r="M80" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N80" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3</v>
+      </c>
+      <c r="E81" s="5">
+        <v>30</v>
+      </c>
+      <c r="F81" s="5">
+        <v>30</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L81" s="16"/>
+      <c r="M81" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N81" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="12">
+        <v>3</v>
+      </c>
+      <c r="E82" s="12">
+        <v>30</v>
+      </c>
+      <c r="F82" s="12">
+        <v>30</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L82" s="16"/>
+      <c r="M82" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N82" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3</v>
+      </c>
+      <c r="E83" s="5">
+        <v>30</v>
+      </c>
+      <c r="F83" s="5">
+        <v>30</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L83" s="16"/>
+      <c r="M83" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N83" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>60</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="4"/>
+      <c r="M84" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>60</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="L85" s="4"/>
+      <c r="M85" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N85" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="20">
+        <v>6</v>
+      </c>
+      <c r="E86" s="20">
+        <v>0</v>
+      </c>
+      <c r="F86" s="20">
+        <v>0</v>
+      </c>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20">
+        <v>180</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="19"/>
+      <c r="M86" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N86" s="38" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:I47">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$J46&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:L47 L73 M2:M86 B73:J73 B74:L86 B48:L72 B2:L45">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:C86 B2:C45">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70 K67 B61:B65 B79:B83">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50 K73 K53">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>#REF!&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:I47">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:C47">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N86">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
+++ b/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy94\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30615A63-1A8E-4FD6-AF80-44E1D8FD6B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC721F4-582A-4211-9F05-57406B945896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6C2B6FC-ED23-41F9-89D8-E92A8C2587DC}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="280">
   <si>
     <t>STT</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Tên học phần (Tiếng Việt)</t>
   </si>
   <si>
+    <t>Tên học phần (Tiếng Anh)</t>
+  </si>
+  <si>
     <t>TC</t>
   </si>
   <si>
@@ -209,30 +212,45 @@
     <t xml:space="preserve">Toán cao cấp </t>
   </si>
   <si>
+    <t>Advanced Calculus</t>
+  </si>
+  <si>
     <t>DTN0046</t>
   </si>
   <si>
     <t xml:space="preserve">Thực hành Toán cao cấp </t>
   </si>
   <si>
+    <t>Calculus Lab</t>
+  </si>
+  <si>
     <t>DTN0010</t>
   </si>
   <si>
     <t xml:space="preserve">Đại số tuyến tính </t>
   </si>
   <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
     <t>DTN0014</t>
   </si>
   <si>
     <t xml:space="preserve">Thực hành Đại số tuyến tính </t>
   </si>
   <si>
+    <t>Linear Algebra Lab</t>
+  </si>
+  <si>
     <t>DVL0010</t>
   </si>
   <si>
     <t xml:space="preserve">Vật lý đại cương 1 </t>
   </si>
   <si>
+    <t>General Physics 1</t>
+  </si>
+  <si>
     <t>Không</t>
   </si>
   <si>
@@ -242,30 +260,45 @@
     <t xml:space="preserve">Vật lý đại cương 2 </t>
   </si>
   <si>
+    <t>General Physics 2</t>
+  </si>
+  <si>
     <t>DTN0101</t>
   </si>
   <si>
     <t xml:space="preserve">Toán rời rạc </t>
   </si>
   <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
     <t>DIT0010</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn Công nghệ thông tin </t>
   </si>
   <si>
+    <t>Introduction to Information Technology</t>
+  </si>
+  <si>
     <t>DIT0020</t>
   </si>
   <si>
     <t xml:space="preserve">Cơ sở lập trình </t>
   </si>
   <si>
+    <t>Programming Basics</t>
+  </si>
+  <si>
     <t>DIT0030</t>
   </si>
   <si>
     <t xml:space="preserve">Kỹ năng nghề nghiệp </t>
   </si>
   <si>
+    <t>Professional Skills</t>
+  </si>
+  <si>
     <t>DGT0010</t>
   </si>
   <si>
@@ -314,132 +347,198 @@
     <t xml:space="preserve">Kỹ thuật lập trình </t>
   </si>
   <si>
+    <t>Programming Techniques</t>
+  </si>
+  <si>
     <t>DIT0050</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình hướng đối tượng </t>
   </si>
   <si>
+    <t>Object-Oriented Programming</t>
+  </si>
+  <si>
     <t>DIT0060</t>
   </si>
   <si>
     <t xml:space="preserve">Cấu trúc dữ liệu và giải thuật </t>
   </si>
   <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
     <t>DIT0070</t>
   </si>
   <si>
     <t xml:space="preserve">Cơ sở dữ liệu </t>
   </si>
   <si>
+    <t>Databases</t>
+  </si>
+  <si>
     <t>DIT0081</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn Mạng máy tính và điện toán đám mây </t>
   </si>
   <si>
+    <t>Introduction to Computer Networks and Cloud Computing</t>
+  </si>
+  <si>
     <t>DIT0091</t>
   </si>
   <si>
     <t xml:space="preserve">Các nền tảng phát triển phần mềm </t>
   </si>
   <si>
+    <t>Software Development Platforms</t>
+  </si>
+  <si>
     <t>DIT0100</t>
   </si>
   <si>
     <t xml:space="preserve">Hệ điều hành và lập trình Linux </t>
   </si>
   <si>
+    <t>Linux Operating System and Programming</t>
+  </si>
+  <si>
     <t>DIT0110</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình ứng dụng Java </t>
   </si>
   <si>
+    <t>Java Application Programming</t>
+  </si>
+  <si>
     <t>DIT0190</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình ứng dụng Web </t>
   </si>
   <si>
+    <t>Web Application Programming</t>
+  </si>
+  <si>
     <t>DIT0130</t>
   </si>
   <si>
     <t xml:space="preserve">An ninh Mạng máy tính </t>
   </si>
   <si>
+    <t>Computer Network Security</t>
+  </si>
+  <si>
     <t>DIT0140</t>
   </si>
   <si>
     <t xml:space="preserve">Hệ Quản trị Cơ sở dữ liệu </t>
   </si>
   <si>
+    <t>Database Management System</t>
+  </si>
+  <si>
     <t>DIT0150</t>
   </si>
   <si>
     <t xml:space="preserve">Quản lý Dự án CNTT </t>
   </si>
   <si>
+    <t>IT Project Management</t>
+  </si>
+  <si>
     <t>DIT0170</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình ứng dụng di động </t>
   </si>
   <si>
+    <t>Mobile Application Programming</t>
+  </si>
+  <si>
     <t>DIT0530</t>
   </si>
   <si>
     <t xml:space="preserve">Quản lý và phát triển các hệ thống thông tin </t>
   </si>
   <si>
+    <t>Information Systems Development and Management</t>
+  </si>
+  <si>
     <t>DIT0540</t>
   </si>
   <si>
     <t>Lập trình Python nâng cao</t>
   </si>
   <si>
+    <t>Advanced Python Programming</t>
+  </si>
+  <si>
     <t>DIT0550</t>
   </si>
   <si>
     <t>Nhập môn Phân tích Dữ liệu và Học sâu</t>
   </si>
   <si>
+    <t>Introduction to Data Analytics and Deep Learning</t>
+  </si>
+  <si>
     <t>DIT0160</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn Công nghệ phần mềm </t>
   </si>
   <si>
+    <t>Introduction to Software Technology</t>
+  </si>
+  <si>
     <t>DTH0161</t>
   </si>
   <si>
     <t xml:space="preserve">Kỹ thuật lấy yêu cầu </t>
   </si>
   <si>
+    <t>Requirements Engineering</t>
+  </si>
+  <si>
     <t>DTH0141</t>
   </si>
   <si>
     <t xml:space="preserve">Phân tích và thiết kế hệ thống theo Hướng đối tượng </t>
   </si>
   <si>
+    <t>Object Oriented Analysis and Design</t>
+  </si>
+  <si>
     <t>DTH0122</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm thử phần mềm </t>
   </si>
   <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
     <t>DIT0200</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình Web nâng cao </t>
   </si>
   <si>
+    <t>Advanced Web Programming</t>
+  </si>
+  <si>
     <t>DIT0260</t>
   </si>
   <si>
     <t xml:space="preserve">Quản lý dự án phần mềm </t>
   </si>
   <si>
+    <t>Software Project Management</t>
+  </si>
+  <si>
     <t>DTH0141; DTH0122</t>
   </si>
   <si>
@@ -449,48 +548,72 @@
     <t xml:space="preserve">Xác xuất thống kê ứng dụng </t>
   </si>
   <si>
+    <t>Applicable Probability and Statistics</t>
+  </si>
+  <si>
     <t>DIT0230</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn phân tích dữ liệu lớn </t>
   </si>
   <si>
+    <t>Introduction to BigData Analytics</t>
+  </si>
+  <si>
     <t>DIT0350</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn Trí tuệ nhân tạo </t>
   </si>
   <si>
+    <t>Introduction to Artificial Intelligent</t>
+  </si>
+  <si>
     <t>DIT0360</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn học máy </t>
   </si>
   <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
     <t>DIT0370</t>
   </si>
   <si>
     <t xml:space="preserve">Các hệ hỗ trợ ra quyết định </t>
   </si>
   <si>
+    <t>Decision Support Systems</t>
+  </si>
+  <si>
     <t>DIT0380</t>
   </si>
   <si>
     <t xml:space="preserve">Số hóa và quản trị thông tin số </t>
   </si>
   <si>
+    <t>Information Digitization and Management</t>
+  </si>
+  <si>
     <t>DIT0420</t>
   </si>
   <si>
     <t xml:space="preserve">Mạng máy tính nâng cao </t>
   </si>
   <si>
+    <t>Advanced Computer Network</t>
+  </si>
+  <si>
     <t>DIT0450</t>
   </si>
   <si>
     <t xml:space="preserve">Quản trị Mạng </t>
   </si>
   <si>
+    <t>Network Administration</t>
+  </si>
+  <si>
     <t> Không </t>
   </si>
   <si>
@@ -500,54 +623,81 @@
     <t xml:space="preserve">An ninh Hạ tầng mạng </t>
   </si>
   <si>
+    <t>Network Infrastructure Security</t>
+  </si>
+  <si>
     <t>DIT0470</t>
   </si>
   <si>
     <t xml:space="preserve">An ninh Ứng dụng Web </t>
   </si>
   <si>
+    <t>Web Application Security</t>
+  </si>
+  <si>
     <t>DIT0210</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình Hệ thống nhúng và Internet vạn vật </t>
   </si>
   <si>
+    <t>Programming for Embedded Systems and Internet of Things</t>
+  </si>
+  <si>
     <t>DIT0320</t>
   </si>
   <si>
     <t xml:space="preserve">Mã hóa và an toàn dữ liệu </t>
   </si>
   <si>
+    <t>Data Encryption and Security - Blockchain</t>
+  </si>
+  <si>
     <t>DIT0180</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình di động nâng cao </t>
   </si>
   <si>
+    <t>Advanced Mobile Programming</t>
+  </si>
+  <si>
     <t>DIT0270</t>
   </si>
   <si>
     <t xml:space="preserve">Thiết kế kiến trúc phần mềm </t>
   </si>
   <si>
+    <t>Softwre Architecture Design</t>
+  </si>
+  <si>
     <t>DIT0250</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình ứng dụng Game </t>
   </si>
   <si>
+    <t>Game Application Programming</t>
+  </si>
+  <si>
     <t>DIT0280</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm thử tự động </t>
   </si>
   <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
     <t>DIT0440</t>
   </si>
   <si>
     <t xml:space="preserve">Quản lý chất lượng phần mềm </t>
   </si>
   <si>
+    <t>Software Processes and Quality Management</t>
+  </si>
+  <si>
     <t>DIT0160; DTH0122</t>
   </si>
   <si>
@@ -557,12 +707,18 @@
     <t xml:space="preserve">Thương mại điện tử và mạng xã hội </t>
   </si>
   <si>
+    <t>E-Commerce and Social Networks</t>
+  </si>
+  <si>
     <t>DIT0340</t>
   </si>
   <si>
     <t xml:space="preserve">Tiếp thị trực tuyến và tối ưu hóa máy tìm kiếm </t>
   </si>
   <si>
+    <t>Online Marketing and Search Engine Optimization</t>
+  </si>
+  <si>
     <t>DIT0120</t>
   </si>
   <si>
@@ -575,54 +731,81 @@
     <t xml:space="preserve">Lập trình tính toán song song </t>
   </si>
   <si>
+    <t>Parallel Computational Programming</t>
+  </si>
+  <si>
     <t>DIT0290</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn xử lý ảnh số </t>
   </si>
   <si>
+    <t>Introduction to Digital Image Processing</t>
+  </si>
+  <si>
     <t>DIT0300</t>
   </si>
   <si>
     <t xml:space="preserve">Đồ họa và thị giác máy tính </t>
   </si>
   <si>
+    <t>Computer Graphics and Vision</t>
+  </si>
+  <si>
     <t>DIT0480</t>
   </si>
   <si>
     <t xml:space="preserve">An ninh Mạng không dây </t>
   </si>
   <si>
+    <t>Wireless Network Security</t>
+  </si>
+  <si>
     <t>DIT0490</t>
   </si>
   <si>
     <t xml:space="preserve">An ninh nhân sự, định danh và chứng thực </t>
   </si>
   <si>
+    <t>People Identification and Authentication Security</t>
+  </si>
+  <si>
     <t>DIT0500</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm thử An ninh hệ thống mạng </t>
   </si>
   <si>
+    <t>Network System Penetration Testing</t>
+  </si>
+  <si>
     <t>DIT0510</t>
   </si>
   <si>
     <t xml:space="preserve">Lập trình ứng dụng mạng </t>
   </si>
   <si>
+    <t>Network Application Programming</t>
+  </si>
+  <si>
     <t>DIT0520</t>
   </si>
   <si>
     <t xml:space="preserve">Thiết kế và phân tích mạng </t>
   </si>
   <si>
+    <t>Network Analysis and Design</t>
+  </si>
+  <si>
     <t>DIT0390</t>
   </si>
   <si>
     <t xml:space="preserve">Đồ án Thực tập 1 </t>
   </si>
   <si>
+    <t>Internship Project 1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Không </t>
   </si>
   <si>
@@ -632,13 +815,16 @@
     <t xml:space="preserve">Đồ án Thực tập 2 </t>
   </si>
   <si>
+    <t>Internship Project 2</t>
+  </si>
+  <si>
     <t>Đồ án Thực tập 1 (Internship Project 1)</t>
   </si>
   <si>
-    <t>DIT0410</t>
-  </si>
-  <si>
     <t xml:space="preserve">Khoá luận tốt nghiệp </t>
+  </si>
+  <si>
+    <t>Graduation Projects</t>
   </si>
   <si>
     <t>Hoàn thành 06 học phần chuyên ngành bắt buộc </t>
@@ -917,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,6 +1130,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,11 +1697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE44191-4F7D-454A-9855-FE690642DDD6}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,2981 +1709,3162 @@
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" customWidth="1"/>
-    <col min="5" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.21875" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1"/>
+    <col min="6" max="9" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
         <v>45</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
-        <v>30</v>
-      </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
-        <v>30</v>
-      </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
-        <v>30</v>
-      </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
-        <v>30</v>
-      </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="K6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13">
         <v>45</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="21" t="s">
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L7" s="17"/>
+      <c r="M7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
         <v>45</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8" s="4"/>
+      <c r="N8" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
         <v>45</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="4"/>
+      <c r="N9" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
         <v>45</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+      <c r="N10" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
         <v>45</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M11" s="6"/>
+      <c r="N11" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
         <v>45</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M12" s="6"/>
+      <c r="N12" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
         <v>45</v>
       </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M13" s="6"/>
+      <c r="N13" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="5">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
-        <v>30</v>
-      </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+      <c r="N15" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
         <v>45</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
       <c r="F17" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="5">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
-        <v>30</v>
-      </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="5">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
       <c r="F19" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M19" s="6"/>
+      <c r="N19" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="5">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="E20" s="5">
-        <v>30</v>
-      </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="5">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
-        <v>30</v>
-      </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="8">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>45</v>
       </c>
-      <c r="F22" s="5">
-        <v>30</v>
-      </c>
       <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N22" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>30</v>
+        <v>76</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
       </c>
       <c r="F23" s="5">
         <v>30</v>
       </c>
       <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N23" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="8">
+        <v>79</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="8">
         <v>4</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>45</v>
       </c>
-      <c r="F24" s="5">
-        <v>30</v>
-      </c>
       <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N24" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="5">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5">
         <v>2</v>
       </c>
-      <c r="E25" s="5">
-        <v>30</v>
-      </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
+        <v>14</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="24">
+      <c r="B26" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25">
         <v>2</v>
       </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
+      <c r="F26" s="26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
         <v>60</v>
       </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="24">
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25">
         <v>2</v>
       </c>
-      <c r="E27" s="25">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
+      <c r="F27" s="26">
+        <v>0</v>
+      </c>
+      <c r="G27" s="26">
         <v>60</v>
       </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="N27" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="B28" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28">
         <v>2</v>
       </c>
-      <c r="E28" s="27">
+      <c r="F28" s="28">
         <v>37</v>
       </c>
-      <c r="F28" s="27">
+      <c r="G28" s="28">
         <v>8</v>
       </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="N28" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+      <c r="H28" s="28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="27">
+      <c r="B29" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28">
         <v>2</v>
       </c>
-      <c r="E29" s="27">
+      <c r="F29" s="28">
         <v>22</v>
       </c>
-      <c r="F29" s="27">
+      <c r="G29" s="28">
         <v>8</v>
       </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
+      <c r="H29" s="28">
+        <v>0</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="27"/>
+      <c r="N29" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="27">
+      <c r="B30" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28">
         <v>6</v>
       </c>
-      <c r="E30" s="27">
+      <c r="F30" s="28">
         <v>14</v>
       </c>
-      <c r="F30" s="27">
-        <v>16</v>
-      </c>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="N30" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="G30" s="28">
+        <v>16</v>
+      </c>
+      <c r="H30" s="28">
+        <v>0</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="27">
+      <c r="K30" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
+        <v>30</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28">
         <v>1</v>
       </c>
-      <c r="E31" s="27">
+      <c r="F31" s="28">
         <v>4</v>
       </c>
-      <c r="F31" s="27">
+      <c r="G31" s="28">
         <v>56</v>
       </c>
-      <c r="G31" s="27">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H31" s="28">
+        <v>0</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E32" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F32" s="5">
         <v>30</v>
       </c>
       <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N32" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E33" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F33" s="5">
         <v>30</v>
       </c>
       <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="5">
-        <v>3</v>
+        <v>105</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E34" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F34" s="5">
         <v>30</v>
       </c>
       <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5"/>
       <c r="J34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E35" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F35" s="5">
         <v>30</v>
       </c>
       <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N35" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="5">
-        <v>3</v>
+        <v>111</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E36" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F36" s="5">
         <v>30</v>
       </c>
       <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N36" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="5">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E37" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F37" s="5">
         <v>30</v>
       </c>
       <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N37" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E38" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F38" s="5">
         <v>30</v>
       </c>
       <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E39" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F39" s="5">
         <v>30</v>
       </c>
       <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N39" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="10">
-        <v>3</v>
-      </c>
-      <c r="E40" s="8">
-        <v>30</v>
+        <v>123</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3</v>
       </c>
       <c r="F40" s="8">
         <v>30</v>
       </c>
       <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N40" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="5">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E41" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F41" s="5">
         <v>30</v>
       </c>
       <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N41" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5">
+        <v>30</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="5">
-        <v>3</v>
-      </c>
-      <c r="E42" s="5">
-        <v>30</v>
-      </c>
-      <c r="F42" s="5">
-        <v>30</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N42" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M42" s="4"/>
+      <c r="N42" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="5">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E43" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F43" s="5">
         <v>30</v>
       </c>
       <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N43" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="7">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="E44" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F44" s="7">
         <v>30</v>
       </c>
       <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N44" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" s="6"/>
+      <c r="N44" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="7">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E45" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F45" s="7">
         <v>30</v>
       </c>
       <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N45" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="6"/>
+      <c r="N45" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="12">
-        <v>3</v>
-      </c>
-      <c r="E46" s="5">
-        <v>30</v>
+        <v>141</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="13">
+        <v>3</v>
       </c>
       <c r="F46" s="5">
         <v>30</v>
       </c>
       <c r="G46" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N46" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="12">
-        <v>3</v>
-      </c>
-      <c r="E47" s="5">
-        <v>30</v>
+        <v>144</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="13">
+        <v>3</v>
       </c>
       <c r="F47" s="5">
         <v>30</v>
       </c>
       <c r="G47" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N47" s="36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3</v>
+        <v>147</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E48" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F48" s="5">
         <v>30</v>
       </c>
       <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5"/>
       <c r="J48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N48" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="5">
-        <v>3</v>
+        <v>150</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E49" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F49" s="5">
         <v>30</v>
       </c>
       <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N49" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M49" s="23"/>
+      <c r="N49" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="5">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="E50" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F50" s="5">
         <v>30</v>
       </c>
       <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N50" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M50" s="23"/>
+      <c r="N50" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="5">
-        <v>3</v>
+        <v>156</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E51" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F51" s="5">
         <v>30</v>
       </c>
       <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N51" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M51" s="23"/>
+      <c r="N51" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="5">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="E52" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F52" s="5">
         <v>30</v>
       </c>
       <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N52" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="10">
-        <v>3</v>
-      </c>
-      <c r="E53" s="8">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="10">
+        <v>3</v>
       </c>
       <c r="F53" s="8">
         <v>30</v>
       </c>
       <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N53" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M53" s="23"/>
+      <c r="N53" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O53" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="5">
-        <v>3</v>
+        <v>166</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E54" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F54" s="5">
         <v>30</v>
       </c>
       <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5"/>
       <c r="J54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="N54" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="5">
-        <v>3</v>
+        <v>169</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="E55" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F55" s="5">
         <v>30</v>
       </c>
       <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5"/>
       <c r="J55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="N55" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="E56" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F56" s="5">
         <v>30</v>
       </c>
       <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5"/>
       <c r="J56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="N56" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O56" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="5">
-        <v>3</v>
+        <v>175</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E57" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F57" s="5">
         <v>30</v>
       </c>
       <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5"/>
       <c r="J57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="N57" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="5">
-        <v>3</v>
+        <v>178</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E58" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F58" s="5">
         <v>30</v>
       </c>
       <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5"/>
       <c r="J58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="N58" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="N58" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O58" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="5">
-        <v>3</v>
+        <v>181</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="E59" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F59" s="5">
         <v>30</v>
       </c>
       <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="N59" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14">
+        <v>14</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O59" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="12">
-        <v>3</v>
-      </c>
-      <c r="E60" s="12">
-        <v>30</v>
-      </c>
-      <c r="F60" s="12">
-        <v>30</v>
-      </c>
-      <c r="G60" s="12">
-        <v>0</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J60" s="12" t="s">
+      <c r="B60" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="13">
+        <v>3</v>
+      </c>
+      <c r="F60" s="13">
+        <v>30</v>
+      </c>
+      <c r="G60" s="13">
+        <v>30</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M60" s="17"/>
+      <c r="N60" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O60" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="13">
+        <v>3</v>
+      </c>
+      <c r="F61" s="13">
+        <v>30</v>
+      </c>
+      <c r="G61" s="13">
+        <v>30</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M61" s="17"/>
+      <c r="N61" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O61" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="13">
+        <v>3</v>
+      </c>
+      <c r="F62" s="13">
+        <v>30</v>
+      </c>
+      <c r="G62" s="13">
+        <v>30</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M62" s="17"/>
+      <c r="N62" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O62" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
         <v>62</v>
       </c>
-      <c r="K60" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L60" s="16"/>
-      <c r="M60" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N60" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="12">
-        <v>3</v>
-      </c>
-      <c r="E61" s="12">
-        <v>30</v>
-      </c>
-      <c r="F61" s="12">
-        <v>30</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K61" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N61" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="12">
-        <v>3</v>
-      </c>
-      <c r="E62" s="12">
-        <v>30</v>
-      </c>
-      <c r="F62" s="12">
-        <v>30</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L62" s="16"/>
-      <c r="M62" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N62" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="12">
-        <v>3</v>
-      </c>
-      <c r="E63" s="12">
-        <v>30</v>
-      </c>
-      <c r="F63" s="12">
-        <v>30</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L63" s="16"/>
-      <c r="M63" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N63" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
+      <c r="B63" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="13">
+        <v>3</v>
+      </c>
+      <c r="F63" s="13">
+        <v>30</v>
+      </c>
+      <c r="G63" s="13">
+        <v>30</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M63" s="17"/>
+      <c r="N63" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O63" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D64" s="12">
-        <v>3</v>
-      </c>
-      <c r="E64" s="12">
-        <v>30</v>
-      </c>
-      <c r="F64" s="12">
-        <v>30</v>
-      </c>
-      <c r="G64" s="12">
-        <v>0</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N64" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14">
+      <c r="B64" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="13">
+        <v>3</v>
+      </c>
+      <c r="F64" s="13">
+        <v>30</v>
+      </c>
+      <c r="G64" s="13">
+        <v>30</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" s="17"/>
+      <c r="N64" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O64" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
         <v>64</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="12">
-        <v>3</v>
-      </c>
-      <c r="E65" s="12">
-        <v>30</v>
-      </c>
-      <c r="F65" s="12">
-        <v>30</v>
-      </c>
-      <c r="G65" s="12">
-        <v>0</v>
-      </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K65" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N65" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="13">
+        <v>3</v>
+      </c>
+      <c r="F65" s="13">
+        <v>30</v>
+      </c>
+      <c r="G65" s="13">
+        <v>30</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M65" s="17"/>
+      <c r="N65" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O65" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" s="5">
-        <v>3</v>
+        <v>203</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E66" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F66" s="5">
         <v>30</v>
       </c>
       <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="J66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N66" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O66" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="10">
-        <v>3</v>
-      </c>
-      <c r="E67" s="8">
-        <v>30</v>
+        <v>206</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="10">
+        <v>3</v>
       </c>
       <c r="F67" s="8">
         <v>30</v>
       </c>
       <c r="G67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L67" s="22"/>
-      <c r="M67" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N67" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M67" s="23"/>
+      <c r="N67" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O67" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D68" s="5">
-        <v>3</v>
+        <v>209</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="E68" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F68" s="5">
         <v>30</v>
       </c>
       <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N68" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O68" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" s="5">
-        <v>3</v>
+        <v>212</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E69" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F69" s="5">
         <v>30</v>
       </c>
       <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5"/>
       <c r="J69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N69" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O69" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="5">
-        <v>3</v>
+        <v>215</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="E70" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F70" s="5">
         <v>30</v>
       </c>
       <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5"/>
       <c r="J70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N70" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O70" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71" s="5">
-        <v>3</v>
+        <v>219</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="E71" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F71" s="5">
         <v>30</v>
       </c>
       <c r="G71" s="5">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5"/>
       <c r="J71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N71" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O71" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="5">
-        <v>3</v>
+        <v>222</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E72" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F72" s="5">
         <v>30</v>
       </c>
       <c r="G72" s="5">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N72" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O72" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="7">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D73" s="6"/>
       <c r="E73" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F73" s="7">
         <v>30</v>
       </c>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7">
+        <v>30</v>
+      </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="I73" s="7"/>
       <c r="J73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N73" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M73" s="6"/>
+      <c r="N73" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O73" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D74" s="5">
-        <v>3</v>
+        <v>227</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E74" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F74" s="5">
         <v>30</v>
       </c>
       <c r="G74" s="5">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5"/>
       <c r="J74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N74" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O74" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D75" s="5">
-        <v>3</v>
+        <v>230</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
@@ -4502,79 +4872,85 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5"/>
       <c r="J75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N75" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O75" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D76" s="5">
-        <v>3</v>
+        <v>233</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E76" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F76" s="5">
         <v>30</v>
       </c>
       <c r="G76" s="5">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5"/>
       <c r="J76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N76" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O76" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="5">
-        <v>3</v>
+        <v>219</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="E77" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
@@ -4582,39 +4958,42 @@
       <c r="G77" s="5">
         <v>0</v>
       </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H77" s="5">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5"/>
       <c r="J77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N77" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O77" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D78" s="5">
-        <v>3</v>
+        <v>222</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
@@ -4622,361 +5001,388 @@
       <c r="G78" s="5">
         <v>0</v>
       </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="5"/>
       <c r="J78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N78" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O78" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="12">
-        <v>3</v>
-      </c>
-      <c r="E79" s="12">
-        <v>30</v>
-      </c>
-      <c r="F79" s="12">
-        <v>30</v>
-      </c>
-      <c r="G79" s="12">
-        <v>0</v>
-      </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K79" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L79" s="16"/>
-      <c r="M79" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N79" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="13">
+        <v>3</v>
+      </c>
+      <c r="F79" s="13">
+        <v>30</v>
+      </c>
+      <c r="G79" s="13">
+        <v>30</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M79" s="17"/>
+      <c r="N79" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O79" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>182</v>
+      <c r="B80" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D80" s="5">
-        <v>3</v>
+        <v>239</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="E80" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F80" s="5">
         <v>30</v>
       </c>
       <c r="G80" s="5">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80" s="5"/>
       <c r="J80" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N80" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M80" s="17"/>
+      <c r="N80" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O80" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>184</v>
+      <c r="B81" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="5">
-        <v>3</v>
+        <v>242</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="E81" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F81" s="5">
         <v>30</v>
       </c>
       <c r="G81" s="5">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5"/>
       <c r="J81" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L81" s="16"/>
-      <c r="M81" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N81" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M81" s="17"/>
+      <c r="N81" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O81" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="12">
-        <v>3</v>
-      </c>
-      <c r="E82" s="12">
-        <v>30</v>
-      </c>
-      <c r="F82" s="12">
-        <v>30</v>
-      </c>
-      <c r="G82" s="12">
-        <v>0</v>
-      </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L82" s="16"/>
-      <c r="M82" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N82" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="13">
+        <v>3</v>
+      </c>
+      <c r="F82" s="13">
+        <v>30</v>
+      </c>
+      <c r="G82" s="13">
+        <v>30</v>
+      </c>
+      <c r="H82" s="13">
+        <v>0</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M82" s="17"/>
+      <c r="N82" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O82" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>188</v>
+      <c r="B83" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3</v>
+      </c>
+      <c r="F83" s="5">
+        <v>30</v>
+      </c>
+      <c r="G83" s="5">
+        <v>30</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="5">
-        <v>3</v>
-      </c>
-      <c r="E83" s="5">
-        <v>30</v>
-      </c>
-      <c r="F83" s="5">
-        <v>30</v>
-      </c>
-      <c r="G83" s="5">
-        <v>0</v>
-      </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L83" s="16"/>
-      <c r="M83" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N83" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="L83" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M83" s="17"/>
+      <c r="N83" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O83" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="5">
+        <v>251</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="5">
         <v>2</v>
       </c>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
       <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
         <v>60</v>
       </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I84" s="5"/>
       <c r="J84" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="4"/>
-      <c r="M84" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="N84" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="28.2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="4"/>
+      <c r="N84" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="5">
+        <v>255</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="5">
         <v>2</v>
       </c>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
         <v>60</v>
       </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I85" s="5"/>
       <c r="J85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="M85" s="4"/>
+      <c r="N85" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="19">
+        <v>85</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" s="21">
+        <v>6</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0</v>
+      </c>
+      <c r="G86" s="21">
+        <v>0</v>
+      </c>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21">
+        <v>180</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L86" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="N85" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="18">
-        <v>85</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" s="20">
-        <v>6</v>
-      </c>
-      <c r="E86" s="20">
-        <v>0</v>
-      </c>
-      <c r="F86" s="20">
-        <v>0</v>
-      </c>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20">
-        <v>180</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L86" s="19"/>
-      <c r="M86" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N86" s="38" t="s">
-        <v>217</v>
+      <c r="M86" s="20"/>
+      <c r="N86" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O86" s="39" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K50">
+  <conditionalFormatting sqref="L50">
     <cfRule type="expression" dxfId="9" priority="5">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+  <conditionalFormatting sqref="L53">
     <cfRule type="expression" dxfId="8" priority="4">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I47">
+  <conditionalFormatting sqref="J46:J47">
     <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$J46&lt;&gt;#REF!</formula>
+      <formula>$K46&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:L47 L73 M2:M86 B73:J73 B74:L86 B48:L72 B2:L45">
+  <conditionalFormatting sqref="K46:M47 B73:K73 M73 B74:M86 B48:M72 B2:M45 N2:N86">
     <cfRule type="expression" dxfId="6" priority="6">
       <formula>#REF!=1</formula>
     </cfRule>
@@ -4986,17 +5392,17 @@
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70 K67 B61:B65 B79:B83">
+  <conditionalFormatting sqref="L70 L67 B61:B65 B79:B83">
     <cfRule type="expression" dxfId="4" priority="8">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50 K73 K53">
+  <conditionalFormatting sqref="L50 L73 L53">
     <cfRule type="expression" dxfId="3" priority="9">
       <formula>#REF!&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:I47">
+  <conditionalFormatting sqref="B46:J47">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>#REF!=1</formula>
     </cfRule>
@@ -5006,7 +5412,7 @@
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N86">
+  <conditionalFormatting sqref="O2:O86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=1</formula>
     </cfRule>

--- a/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
+++ b/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy94\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAFA947-2EE7-4901-B78A-AF810D173161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D08B53E-10A5-4846-B25A-02FF37AE44E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6C2B6FC-ED23-41F9-89D8-E92A8C2587DC}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="295">
   <si>
     <t>STT</t>
   </si>
@@ -83,6 +83,12 @@
     <t>DA</t>
   </si>
   <si>
+    <t>DCT0080</t>
+  </si>
+  <si>
+    <t>Triết học Mác Lênin</t>
+  </si>
+  <si>
     <t>BB</t>
   </si>
   <si>
@@ -92,22 +98,502 @@
     <t> Không</t>
   </si>
   <si>
+    <t>DCT0090</t>
+  </si>
+  <si>
+    <t>Kinh tế chính trị Mác Lênin</t>
+  </si>
+  <si>
+    <t>DCT0100</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội khoa học</t>
+  </si>
+  <si>
+    <t>DCT0030</t>
+  </si>
+  <si>
+    <t>Tư tưởng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>DCT0110</t>
+  </si>
+  <si>
+    <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+  </si>
+  <si>
+    <t>DCT0100; DCT0030</t>
+  </si>
+  <si>
+    <t>DTA0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 1 </t>
+  </si>
+  <si>
+    <t>DTA0610</t>
+  </si>
+  <si>
+    <t>Áp dụng theo email phòng Đào tạo ngày 13/08/2021</t>
+  </si>
+  <si>
+    <t>DTA0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 2 </t>
+  </si>
+  <si>
+    <t>DTA0015 </t>
+  </si>
+  <si>
+    <t>DTA0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 3 </t>
+  </si>
+  <si>
+    <t>DTA0024 </t>
+  </si>
+  <si>
+    <t>DTA0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 4 </t>
+  </si>
+  <si>
+    <t>DTA0034 </t>
+  </si>
+  <si>
+    <t>DTA0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 5 </t>
+  </si>
+  <si>
+    <t>DTA0044 </t>
+  </si>
+  <si>
+    <t>DTA0590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 6 </t>
+  </si>
+  <si>
+    <t>DTA0121 </t>
+  </si>
+  <si>
+    <t>DTA0600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Văn 7 </t>
+  </si>
+  <si>
+    <t>DTA0590 </t>
+  </si>
+  <si>
+    <t>DPL0010</t>
+  </si>
+  <si>
+    <t>Pháp luật đại cương</t>
+  </si>
+  <si>
     <t>Không  </t>
   </si>
   <si>
+    <t>DMT0020</t>
+  </si>
+  <si>
+    <t>Môi trường và con người</t>
+  </si>
+  <si>
+    <t>DTN0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toán cao cấp </t>
+  </si>
+  <si>
+    <t>Advanced Calculus</t>
+  </si>
+  <si>
+    <t>DTN0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hành Toán cao cấp </t>
+  </si>
+  <si>
+    <t>Calculus Lab</t>
+  </si>
+  <si>
+    <t>DTN0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại số tuyến tính </t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>DTN0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hành Đại số tuyến tính </t>
+  </si>
+  <si>
+    <t>Linear Algebra Lab</t>
+  </si>
+  <si>
+    <t>DVL0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vật lý đại cương 1 </t>
+  </si>
+  <si>
+    <t>General Physics 1</t>
+  </si>
+  <si>
     <t>Không</t>
   </si>
   <si>
+    <t>DVL0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vật lý đại cương 2 </t>
+  </si>
+  <si>
+    <t>General Physics 2</t>
+  </si>
+  <si>
+    <t>DTN0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toán rời rạc </t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>DIT0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn Công nghệ thông tin </t>
+  </si>
+  <si>
+    <t>Introduction to Information Technology</t>
+  </si>
+  <si>
+    <t>DIT0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở lập trình </t>
+  </si>
+  <si>
+    <t>Programming Basics</t>
+  </si>
+  <si>
+    <t>DIT0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ năng nghề nghiệp </t>
+  </si>
+  <si>
+    <t>Professional Skills</t>
+  </si>
+  <si>
+    <t>Giáo dục thể chất (1)</t>
+  </si>
+  <si>
+    <t>BB/KTL</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 1</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 2</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 3</t>
+  </si>
+  <si>
+    <t>GDQP 1,2</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ thuật lập trình </t>
+  </si>
+  <si>
+    <t>Programming Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình hướng đối tượng </t>
+  </si>
+  <si>
+    <t>Object-Oriented Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu trúc dữ liệu và giải thuật </t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>DIT0070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở dữ liệu </t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
     <t>DIT0081</t>
   </si>
   <si>
+    <t xml:space="preserve">Nhập môn Mạng máy tính và điện toán đám mây </t>
+  </si>
+  <si>
+    <t>Introduction to Computer Networks and Cloud Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các nền tảng phát triển phần mềm </t>
+  </si>
+  <si>
+    <t>Software Development Platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ điều hành và lập trình Linux </t>
+  </si>
+  <si>
+    <t>Linux Operating System and Programming</t>
+  </si>
+  <si>
+    <t>DIT0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng Java </t>
+  </si>
+  <si>
+    <t>Java Application Programming</t>
+  </si>
+  <si>
+    <t>DIT0190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng Web </t>
+  </si>
+  <si>
+    <t>Web Application Programming</t>
+  </si>
+  <si>
     <t>DIT0130</t>
   </si>
   <si>
+    <t xml:space="preserve">An ninh Mạng máy tính </t>
+  </si>
+  <si>
+    <t>Computer Network Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ Quản trị Cơ sở dữ liệu </t>
+  </si>
+  <si>
+    <t>Database Management System</t>
+  </si>
+  <si>
+    <t>IT Project Management</t>
+  </si>
+  <si>
+    <t>DIT0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng di động </t>
+  </si>
+  <si>
+    <t>Mobile Application Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý và phát triển các hệ thống thông tin </t>
+  </si>
+  <si>
+    <t>Information Systems Development and Management</t>
+  </si>
+  <si>
+    <t>Lập trình Python nâng cao</t>
+  </si>
+  <si>
+    <t>Advanced Python Programming</t>
+  </si>
+  <si>
+    <t>Nhập môn Phân tích Dữ liệu và Học sâu</t>
+  </si>
+  <si>
+    <t>Introduction to Data Analytics and Deep Learning</t>
+  </si>
+  <si>
+    <t>DIT0160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn Công nghệ phần mềm </t>
+  </si>
+  <si>
+    <t>Introduction to Software Technology</t>
+  </si>
+  <si>
+    <t>DTH0161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ thuật lấy yêu cầu </t>
+  </si>
+  <si>
+    <t>Requirements Engineering</t>
+  </si>
+  <si>
+    <t>DTH0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân tích và thiết kế hệ thống theo Hướng đối tượng </t>
+  </si>
+  <si>
+    <t>Object Oriented Analysis and Design</t>
+  </si>
+  <si>
+    <t>DTH0122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm thử phần mềm </t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình Web nâng cao </t>
+  </si>
+  <si>
+    <t>Advanced Web Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý dự án phần mềm </t>
+  </si>
+  <si>
+    <t>Software Project Management</t>
+  </si>
+  <si>
+    <t>DTH0141; DTH0122</t>
+  </si>
+  <si>
+    <t>DTN0073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xác xuất thống kê ứng dụng </t>
+  </si>
+  <si>
+    <t>Applicable Probability and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn phân tích dữ liệu lớn </t>
+  </si>
+  <si>
+    <t>Introduction to BigData Analytics</t>
+  </si>
+  <si>
+    <t>DIT0350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn Trí tuệ nhân tạo </t>
+  </si>
+  <si>
+    <t>Introduction to Artificial Intelligent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập môn học máy </t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các hệ hỗ trợ ra quyết định </t>
+  </si>
+  <si>
+    <t>Decision Support Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số hóa và quản trị thông tin số </t>
+  </si>
+  <si>
+    <t>Information Digitization and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mạng máy tính nâng cao </t>
+  </si>
+  <si>
+    <t>Advanced Computer Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản trị Mạng </t>
+  </si>
+  <si>
+    <t>Network Administration</t>
+  </si>
+  <si>
     <t> Không </t>
   </si>
   <si>
-    <t>DIT0330</t>
+    <t xml:space="preserve">An ninh Hạ tầng mạng </t>
+  </si>
+  <si>
+    <t>Network Infrastructure Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ninh Ứng dụng Web </t>
+  </si>
+  <si>
+    <t>Web Application Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình Hệ thống nhúng và Internet vạn vật </t>
+  </si>
+  <si>
+    <t>Programming for Embedded Systems and Internet of Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã hóa và an toàn dữ liệu </t>
+  </si>
+  <si>
+    <t>Data Encryption and Security - Blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình di động nâng cao </t>
+  </si>
+  <si>
+    <t>Advanced Mobile Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế kiến trúc phần mềm </t>
+  </si>
+  <si>
+    <t>Softwre Architecture Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình ứng dụng Game </t>
+  </si>
+  <si>
+    <t>Game Application Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm thử tự động </t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý chất lượng phần mềm </t>
+  </si>
+  <si>
+    <t>Software Processes and Quality Management</t>
+  </si>
+  <si>
+    <t>DIT0160; DTH0122</t>
   </si>
   <si>
     <t xml:space="preserve">Thương mại điện tử và mạng xã hội </t>
@@ -116,16 +602,19 @@
     <t>E-Commerce and Social Networks</t>
   </si>
   <si>
-    <t>DIT0340</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tiếp thị trực tuyến và tối ưu hóa máy tìm kiếm </t>
   </si>
   <si>
     <t>Online Marketing and Search Engine Optimization</t>
   </si>
   <si>
-    <t>DIT0290</t>
+    <t>Lập trình Java nâng cao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình tính toán song song </t>
+  </si>
+  <si>
+    <t>Parallel Computational Programming</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập môn xử lý ảnh số </t>
@@ -134,63 +623,42 @@
     <t>Introduction to Digital Image Processing</t>
   </si>
   <si>
-    <t>DIT0300</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đồ họa và thị giác máy tính </t>
   </si>
   <si>
     <t>Computer Graphics and Vision</t>
   </si>
   <si>
-    <t>DIT0480</t>
-  </si>
-  <si>
     <t xml:space="preserve">An ninh Mạng không dây </t>
   </si>
   <si>
     <t>Wireless Network Security</t>
   </si>
   <si>
-    <t>DIT0490</t>
-  </si>
-  <si>
     <t xml:space="preserve">An ninh nhân sự, định danh và chứng thực </t>
   </si>
   <si>
     <t>People Identification and Authentication Security</t>
   </si>
   <si>
-    <t>DIT0500</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kiểm thử An ninh hệ thống mạng </t>
   </si>
   <si>
     <t>Network System Penetration Testing</t>
   </si>
   <si>
-    <t>DIT0510</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lập trình ứng dụng mạng </t>
   </si>
   <si>
     <t>Network Application Programming</t>
   </si>
   <si>
-    <t>DIT0520</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thiết kế và phân tích mạng </t>
   </si>
   <si>
     <t>Network Analysis and Design</t>
   </si>
   <si>
-    <t>DIT0390</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đồ án Thực tập 1 </t>
   </si>
   <si>
@@ -200,9 +668,6 @@
     <t xml:space="preserve"> Không </t>
   </si>
   <si>
-    <t>DIT0400</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đồ án Thực tập 2 </t>
   </si>
   <si>
@@ -212,9 +677,6 @@
     <t>Đồ án Thực tập 1 (Internship Project 1)</t>
   </si>
   <si>
-    <t>DIT0410</t>
-  </si>
-  <si>
     <t xml:space="preserve">Khoá luận tốt nghiệp </t>
   </si>
   <si>
@@ -224,6 +686,21 @@
     <t>Hoàn thành 06 học phần chuyên ngành bắt buộc </t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>CSN</t>
+  </si>
+  <si>
+    <t>CN_CNPM</t>
+  </si>
+  <si>
+    <t>CN_CNDL</t>
+  </si>
+  <si>
+    <t>CN_ANM</t>
+  </si>
+  <si>
     <t>TC_CN</t>
   </si>
   <si>
@@ -236,17 +713,230 @@
     <t>Mã loại kiến thức</t>
   </si>
   <si>
+    <t>DCKTL</t>
+  </si>
+  <si>
     <t>Thực tập tốt nghiệp/Khóa luận - Đồ án tốt nghiệp/Học phần tốt nghiệp</t>
   </si>
   <si>
+    <t>Kiến thức cơ sở ngành (36 tín chỉ = 18 bắt buộc + 18 tự chọn )</t>
+  </si>
+  <si>
+    <t>Chuyên ngành Công nghệ Phần mềm (18 tín chỉ  bắt buộc)</t>
+  </si>
+  <si>
+    <t>Chuyên ngành An ninh Mạng và IoT (18 tín chỉ)</t>
+  </si>
+  <si>
     <t>Các môn tự chọn chuyên ngành (6 tín chỉ)</t>
+  </si>
+  <si>
+    <t>Đại cương (61 TC tích luỹ)</t>
+  </si>
+  <si>
+    <t>Đại cương không tích luỹ (15 TC không tích luỹ)</t>
+  </si>
+  <si>
+    <t>Chuyên ngành Công nghệ Dữ liệu (18 tín chỉ bắt buộc)</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>DAT0010</t>
+  </si>
+  <si>
+    <t>DAT0011</t>
+  </si>
+  <si>
+    <t>DAT0012</t>
+  </si>
+  <si>
+    <t>DAT0013</t>
+  </si>
+  <si>
+    <t>DAT0014</t>
+  </si>
+  <si>
+    <t>DAT0015</t>
+  </si>
+  <si>
+    <t>DAT0016</t>
+  </si>
+  <si>
+    <t>DAT0017</t>
+  </si>
+  <si>
+    <t>DAT0018</t>
+  </si>
+  <si>
+    <t>DAT0019</t>
+  </si>
+  <si>
+    <t>DAT0020</t>
+  </si>
+  <si>
+    <t>DAT0021</t>
+  </si>
+  <si>
+    <t>DAT0022</t>
+  </si>
+  <si>
+    <t>DAT0023</t>
+  </si>
+  <si>
+    <t>DAT0024</t>
+  </si>
+  <si>
+    <t>DAT0025</t>
+  </si>
+  <si>
+    <t>DAT0026</t>
+  </si>
+  <si>
+    <t>DAT0027</t>
+  </si>
+  <si>
+    <t>DAT0028</t>
+  </si>
+  <si>
+    <t>DAT0029</t>
+  </si>
+  <si>
+    <t>DAT0030</t>
+  </si>
+  <si>
+    <t>DAT0031</t>
+  </si>
+  <si>
+    <t>DAT0032</t>
+  </si>
+  <si>
+    <t>DAT0033</t>
+  </si>
+  <si>
+    <t>DAT0034</t>
+  </si>
+  <si>
+    <t>DAT0035</t>
+  </si>
+  <si>
+    <t>DAT0036</t>
+  </si>
+  <si>
+    <t>DAT0037</t>
+  </si>
+  <si>
+    <t>DAT0038</t>
+  </si>
+  <si>
+    <t>DAT0039</t>
+  </si>
+  <si>
+    <t>DAT0040</t>
+  </si>
+  <si>
+    <t>DAT0041</t>
+  </si>
+  <si>
+    <t>DAT0042</t>
+  </si>
+  <si>
+    <t>DAT0043</t>
+  </si>
+  <si>
+    <t>DAT0044</t>
+  </si>
+  <si>
+    <t>DAT0045</t>
+  </si>
+  <si>
+    <t>DAT0046</t>
+  </si>
+  <si>
+    <t>DAT0047</t>
+  </si>
+  <si>
+    <t>DAT0048</t>
+  </si>
+  <si>
+    <t>DAT0049</t>
+  </si>
+  <si>
+    <t>DAT0050</t>
+  </si>
+  <si>
+    <t>DAT0051</t>
+  </si>
+  <si>
+    <t>DAT0052</t>
+  </si>
+  <si>
+    <t>DAT0053</t>
+  </si>
+  <si>
+    <t>DAT0054</t>
+  </si>
+  <si>
+    <t>DAT0055</t>
+  </si>
+  <si>
+    <t>DAT0056</t>
+  </si>
+  <si>
+    <t>DAT0057</t>
+  </si>
+  <si>
+    <t>DAT0058</t>
+  </si>
+  <si>
+    <t>DAT0059</t>
+  </si>
+  <si>
+    <t>DAT0060</t>
+  </si>
+  <si>
+    <t>DAT0061</t>
+  </si>
+  <si>
+    <t>DAT0062</t>
+  </si>
+  <si>
+    <t>DAT0063</t>
+  </si>
+  <si>
+    <t>DAT0064</t>
+  </si>
+  <si>
+    <t>DAT0065</t>
+  </si>
+  <si>
+    <t>DAT0066</t>
+  </si>
+  <si>
+    <t>DAT0067</t>
+  </si>
+  <si>
+    <t>DAT0068</t>
+  </si>
+  <si>
+    <t>DAT0069</t>
+  </si>
+  <si>
+    <t>DAT0070</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t>Ôi giồi ôi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +967,18 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -452,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,11 +1169,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,14 +1201,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,6 +1228,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,15 +1253,57 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -549,6 +1325,30 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC729"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC729"/>
         </patternFill>
       </fill>
     </dxf>
@@ -954,11 +1754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE44191-4F7D-454A-9855-FE690642DDD6}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,70 +1778,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="E2" s="5">
         <v>3</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
@@ -1051,83 +1851,83 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="N2" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5">
         <v>30</v>
       </c>
       <c r="G3" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="N3" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="E4" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1137,40 +1937,40 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>77</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -1180,384 +1980,3548 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>78</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>64</v>
+      <c r="L6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>79</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>80</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>81</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6">
-        <v>30</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>82</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5">
-        <v>30</v>
-      </c>
       <c r="G10" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>45</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>30</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>30</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5">
+        <v>30</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>45</v>
+      </c>
+      <c r="G22" s="5">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="5">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5">
+        <v>45</v>
+      </c>
+      <c r="G24" s="5">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5">
+        <v>9</v>
+      </c>
+      <c r="F25" s="5">
+        <v>30</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="5">
+        <v>9</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <v>60</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="5">
+        <v>9</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>60</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="5">
+        <v>9</v>
+      </c>
+      <c r="F28" s="26">
+        <v>37</v>
+      </c>
+      <c r="G28" s="26">
+        <v>8</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="25"/>
+      <c r="N28" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" s="5">
+        <v>9</v>
+      </c>
+      <c r="F29" s="26">
+        <v>22</v>
+      </c>
+      <c r="G29" s="26">
+        <v>8</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="25"/>
+      <c r="N29" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="5">
+        <v>9</v>
+      </c>
+      <c r="F30" s="26">
+        <v>14</v>
+      </c>
+      <c r="G30" s="26">
+        <v>16</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="30">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9</v>
+      </c>
+      <c r="F31" s="26">
         <v>4</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="14" t="s">
+      <c r="G31" s="26">
+        <v>56</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="5">
+        <v>9</v>
+      </c>
+      <c r="F32" s="5">
+        <v>30</v>
+      </c>
+      <c r="G32" s="5">
+        <v>30</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="5">
+        <v>9</v>
+      </c>
+      <c r="F33" s="5">
+        <v>30</v>
+      </c>
+      <c r="G33" s="5">
+        <v>30</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="5">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5">
+        <v>30</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="5">
+        <v>9</v>
+      </c>
+      <c r="F35" s="5">
+        <v>30</v>
+      </c>
+      <c r="G35" s="5">
+        <v>30</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="5">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5">
+        <v>30</v>
+      </c>
+      <c r="G36" s="5">
+        <v>30</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="5">
+        <v>9</v>
+      </c>
+      <c r="F37" s="5">
+        <v>30</v>
+      </c>
+      <c r="G37" s="5">
+        <v>30</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="5">
+        <v>9</v>
+      </c>
+      <c r="F38" s="5">
+        <v>30</v>
+      </c>
+      <c r="G38" s="5">
+        <v>30</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="5">
+        <v>9</v>
+      </c>
+      <c r="F39" s="5">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5">
+        <v>30</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="5">
+        <v>9</v>
+      </c>
+      <c r="F40" s="8">
+        <v>30</v>
+      </c>
+      <c r="G40" s="8">
+        <v>30</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="5">
+        <v>9</v>
+      </c>
+      <c r="F41" s="5">
+        <v>30</v>
+      </c>
+      <c r="G41" s="5">
+        <v>30</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="5">
+        <v>9</v>
+      </c>
+      <c r="F42" s="5">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5">
+        <v>30</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="5">
+        <v>9</v>
+      </c>
+      <c r="F43" s="5">
+        <v>30</v>
+      </c>
+      <c r="G43" s="5">
+        <v>30</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="5">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7">
+        <v>30</v>
+      </c>
+      <c r="G44" s="7">
+        <v>30</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" s="6"/>
+      <c r="N44" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="5">
+        <v>9</v>
+      </c>
+      <c r="F45" s="7">
+        <v>30</v>
+      </c>
+      <c r="G45" s="7">
+        <v>30</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="6"/>
+      <c r="N45" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="5">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5">
+        <v>30</v>
+      </c>
+      <c r="G46" s="5">
+        <v>30</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="5">
+        <v>9</v>
+      </c>
+      <c r="F47" s="5">
+        <v>30</v>
+      </c>
+      <c r="G47" s="5">
+        <v>30</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="5">
+        <v>9</v>
+      </c>
+      <c r="F48" s="5">
+        <v>30</v>
+      </c>
+      <c r="G48" s="5">
+        <v>30</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="5">
+        <v>9</v>
+      </c>
+      <c r="F49" s="5">
+        <v>30</v>
+      </c>
+      <c r="G49" s="5">
+        <v>30</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M49" s="22"/>
+      <c r="N49" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="5">
+        <v>9</v>
+      </c>
+      <c r="F50" s="5">
+        <v>30</v>
+      </c>
+      <c r="G50" s="5">
+        <v>30</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M50" s="22"/>
+      <c r="N50" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="5">
+        <v>9</v>
+      </c>
+      <c r="F51" s="5">
+        <v>30</v>
+      </c>
+      <c r="G51" s="5">
+        <v>30</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M51" s="22"/>
+      <c r="N51" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="5">
+        <v>9</v>
+      </c>
+      <c r="F52" s="5">
+        <v>30</v>
+      </c>
+      <c r="G52" s="5">
+        <v>30</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="5">
+        <v>9</v>
+      </c>
+      <c r="F53" s="8">
+        <v>30</v>
+      </c>
+      <c r="G53" s="8">
+        <v>30</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M53" s="22"/>
+      <c r="N53" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="5">
+        <v>9</v>
+      </c>
+      <c r="F54" s="5">
+        <v>30</v>
+      </c>
+      <c r="G54" s="5">
+        <v>30</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="5">
+        <v>9</v>
+      </c>
+      <c r="F55" s="5">
+        <v>30</v>
+      </c>
+      <c r="G55" s="5">
+        <v>30</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="5">
+        <v>9</v>
+      </c>
+      <c r="F56" s="5">
+        <v>30</v>
+      </c>
+      <c r="G56" s="5">
+        <v>30</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="5">
+        <v>9</v>
+      </c>
+      <c r="F57" s="5">
+        <v>30</v>
+      </c>
+      <c r="G57" s="5">
+        <v>30</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="5">
+        <v>9</v>
+      </c>
+      <c r="F58" s="5">
+        <v>30</v>
+      </c>
+      <c r="G58" s="5">
+        <v>30</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="N58" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="5">
+        <v>9</v>
+      </c>
+      <c r="F59" s="5">
+        <v>30</v>
+      </c>
+      <c r="G59" s="5">
+        <v>30</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="B60" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="5">
+        <v>9</v>
+      </c>
+      <c r="F60" s="13">
+        <v>30</v>
+      </c>
+      <c r="G60" s="13">
+        <v>30</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M60" s="17"/>
+      <c r="N60" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="5">
+        <v>9</v>
+      </c>
+      <c r="F61" s="13">
+        <v>30</v>
+      </c>
+      <c r="G61" s="13">
+        <v>30</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M61" s="17"/>
+      <c r="N61" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="5">
+        <v>9</v>
+      </c>
+      <c r="F62" s="13">
+        <v>30</v>
+      </c>
+      <c r="G62" s="13">
+        <v>30</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M62" s="17"/>
+      <c r="N62" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="5">
+        <v>9</v>
+      </c>
+      <c r="F63" s="13">
+        <v>30</v>
+      </c>
+      <c r="G63" s="13">
+        <v>30</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M63" s="17"/>
+      <c r="N63" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" s="5">
+        <v>9</v>
+      </c>
+      <c r="F64" s="13">
+        <v>30</v>
+      </c>
+      <c r="G64" s="13">
+        <v>30</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" s="17"/>
+      <c r="N64" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="B65" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="5">
+        <v>9</v>
+      </c>
+      <c r="F65" s="13">
+        <v>30</v>
+      </c>
+      <c r="G65" s="13">
+        <v>30</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M65" s="17"/>
+      <c r="N65" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="5">
+        <v>9</v>
+      </c>
+      <c r="F66" s="5">
+        <v>30</v>
+      </c>
+      <c r="G66" s="5">
+        <v>30</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="5">
+        <v>9</v>
+      </c>
+      <c r="F67" s="8">
+        <v>30</v>
+      </c>
+      <c r="G67" s="8">
+        <v>30</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M67" s="22"/>
+      <c r="N67" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="5">
+        <v>9</v>
+      </c>
+      <c r="F68" s="5">
+        <v>30</v>
+      </c>
+      <c r="G68" s="5">
+        <v>30</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="5">
+        <v>9</v>
+      </c>
+      <c r="F69" s="5">
+        <v>30</v>
+      </c>
+      <c r="G69" s="5">
+        <v>30</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="5">
+        <v>9</v>
+      </c>
+      <c r="F70" s="5">
+        <v>30</v>
+      </c>
+      <c r="G70" s="5">
+        <v>30</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O70" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="5">
+        <v>9</v>
+      </c>
+      <c r="F71" s="5">
+        <v>30</v>
+      </c>
+      <c r="G71" s="5">
+        <v>30</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O71" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="5">
+        <v>9</v>
+      </c>
+      <c r="F72" s="5">
+        <v>30</v>
+      </c>
+      <c r="G72" s="5">
+        <v>30</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O72" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="5">
+        <v>9</v>
+      </c>
+      <c r="F73" s="7">
+        <v>30</v>
+      </c>
+      <c r="G73" s="7">
+        <v>30</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M73" s="6"/>
+      <c r="N73" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O73" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="5">
+        <v>9</v>
+      </c>
+      <c r="F74" s="5">
+        <v>30</v>
+      </c>
+      <c r="G74" s="5">
+        <v>30</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="5">
+        <v>9</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O75" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="5">
+        <v>9</v>
+      </c>
+      <c r="F76" s="5">
+        <v>30</v>
+      </c>
+      <c r="G76" s="5">
+        <v>30</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O76" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="5">
+        <v>9</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O77" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="5">
+        <v>9</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O78" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="5">
+        <v>9</v>
+      </c>
+      <c r="F79" s="13">
+        <v>30</v>
+      </c>
+      <c r="G79" s="13">
+        <v>30</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M79" s="17"/>
+      <c r="N79" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O79" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" s="5">
+        <v>9</v>
+      </c>
+      <c r="F80" s="5">
+        <v>30</v>
+      </c>
+      <c r="G80" s="5">
+        <v>30</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M80" s="17"/>
+      <c r="N80" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O80" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="5">
+        <v>9</v>
+      </c>
+      <c r="F81" s="5">
+        <v>30</v>
+      </c>
+      <c r="G81" s="5">
+        <v>30</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M81" s="17"/>
+      <c r="N81" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O81" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" s="5">
+        <v>9</v>
+      </c>
+      <c r="F82" s="13">
+        <v>30</v>
+      </c>
+      <c r="G82" s="13">
+        <v>30</v>
+      </c>
+      <c r="H82" s="13">
+        <v>0</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M82" s="17"/>
+      <c r="N82" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O82" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="5">
+        <v>9</v>
+      </c>
+      <c r="F83" s="5">
+        <v>30</v>
+      </c>
+      <c r="G83" s="5">
+        <v>30</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M83" s="17"/>
+      <c r="N83" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O83" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="B84" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="5">
+        <v>9</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
         <v>60</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="I84" s="5"/>
+      <c r="J84" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="14" t="s">
+      <c r="K84" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="4"/>
+      <c r="N84" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="O84" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="B85" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="5">
+        <v>9</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
         <v>60</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="I85" s="5"/>
+      <c r="J85" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="14" t="s">
+      <c r="K85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="M85" s="4"/>
+      <c r="N85" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+      <c r="O85" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="18">
         <v>85</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="13">
-        <v>6</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
+      <c r="B86" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="5">
+        <v>9</v>
+      </c>
+      <c r="F86" s="20">
+        <v>0</v>
+      </c>
+      <c r="G86" s="20">
+        <v>0</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20">
         <v>180</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J86" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="15" t="s">
+      <c r="K86" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" s="19"/>
+      <c r="N86" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>63</v>
+      <c r="O86" s="37" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N13">
-    <cfRule type="expression" dxfId="3" priority="9">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C13">
-    <cfRule type="expression" dxfId="2" priority="10">
+  <conditionalFormatting sqref="L53">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:J47">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>$K46&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:M47 M73 C48:D86 B2:M2 N3:N86 B27:B86 F3:M45 F48:M72 F74:M86 F73:K73 E3:E86 B3:D26 C27:D45">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C86 B2:C26 C27:C45 B27:B86">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B10">
-    <cfRule type="expression" dxfId="1" priority="11">
+  <conditionalFormatting sqref="L70 L67">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O13">
-    <cfRule type="expression" dxfId="0" priority="13">
+  <conditionalFormatting sqref="L50 L73 L53">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>#REF!&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:D47 F46:J47">
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O86">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O25">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1581,6 +5545,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020A95A7398140C45A2F719D38434B23A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f464c4684f4805cd2f27ee87272a526">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07db5020-ba8e-48bf-aa17-fbace2a70736" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1a8c984c74c8b52243a5f41979946bd" ns2:_="">
     <xsd:import namespace="07db5020-ba8e-48bf-aa17-fbace2a70736"/>
@@ -1728,15 +5701,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179DDC9E-E391-4AD2-A488-D9C201286EF9}">
   <ds:schemaRefs>
@@ -1748,6 +5712,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48999028-4F3E-48D7-8FDD-8CE421B12A65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648878AA-48B2-4081-A1D0-3EB795A895EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1763,12 +5735,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48999028-4F3E-48D7-8FDD-8CE421B12A65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
+++ b/StudyProgressManagement/Uploads/CTDT_Test - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy94\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy94\Desktop\StudyProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D08B53E-10A5-4846-B25A-02FF37AE44E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B1414-EEC6-4B6D-A74F-A292FE9607F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6C2B6FC-ED23-41F9-89D8-E92A8C2587DC}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="297">
   <si>
     <t>STT</t>
   </si>
@@ -929,7 +929,13 @@
     <t>hehe</t>
   </si>
   <si>
-    <t>Ôi giồi ôi</t>
+    <t>Oi gioi oi</t>
+  </si>
+  <si>
+    <t>Số chỉ BB</t>
+  </si>
+  <si>
+    <t>Số chỉ TC</t>
   </si>
 </sst>
 </file>
@@ -1007,72 +1013,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1090,71 +1036,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,103 +1048,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1754,11 +1622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE44191-4F7D-454A-9855-FE690642DDD6}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,3752 +1643,4142 @@
     <col min="13" max="13" width="24.21875" customWidth="1"/>
     <col min="14" max="14" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="24" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="P1" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>45</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="27" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="P2" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="5">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="27" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="P3" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="5">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="27" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="P4" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E5" s="5">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="P5" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="5">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="P6" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E7" s="5">
-        <v>9</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12">
         <v>45</v>
       </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="21" t="s">
+      <c r="L7" s="15"/>
+      <c r="M7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="P7" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="5">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="4">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
         <v>45</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="27" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="P8" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E9" s="5">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="4">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
         <v>45</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="27" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="P9" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="5">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
         <v>45</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="27" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="P10" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="5">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="4">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
         <v>45</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="27" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="P11" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="5">
-        <v>9</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="4">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
         <v>45</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="27" t="s">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="P12" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="5">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
         <v>45</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="27" t="s">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="P13" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="5">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>30</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
+      <c r="E14" s="4">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="27" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="P14" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E15" s="5">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="E15" s="4">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="27" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="O15" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="P15" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="4">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4">
         <v>45</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="27" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O16" s="36" t="s">
+      <c r="O16" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="P16" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="5">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>30</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="E17" s="4">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="27" t="s">
+      <c r="M17" s="5"/>
+      <c r="N17" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="P17" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="5">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
+      <c r="E18" s="4">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="27" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="O18" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="P18" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="5">
-        <v>9</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>30</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="E19" s="4">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="27" t="s">
+      <c r="M19" s="5"/>
+      <c r="N19" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O19" s="36" t="s">
+      <c r="O19" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="P19" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="5">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5">
-        <v>30</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="E20" s="4">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>30</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="27" t="s">
+      <c r="M20" s="3"/>
+      <c r="N20" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O20" s="36" t="s">
+      <c r="O20" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="P20" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="5">
-        <v>9</v>
-      </c>
-      <c r="F21" s="5">
-        <v>30</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="E21" s="4">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="P21" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="5">
-        <v>9</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="4">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4">
         <v>45</v>
       </c>
-      <c r="G22" s="5">
-        <v>30</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="G22" s="4">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="27" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O22" s="36" t="s">
+      <c r="O22" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="P22" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="5">
-        <v>9</v>
-      </c>
-      <c r="F23" s="5">
-        <v>30</v>
-      </c>
-      <c r="G23" s="5">
-        <v>30</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="E23" s="4">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="27" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O23" s="36" t="s">
+      <c r="O23" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="P23" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="22"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="5">
-        <v>9</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24" s="4">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4">
         <v>45</v>
       </c>
-      <c r="G24" s="5">
-        <v>30</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
+      <c r="G24" s="4">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="27" t="s">
+      <c r="M24" s="3"/>
+      <c r="N24" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="P24" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="5">
-        <v>9</v>
-      </c>
-      <c r="F25" s="5">
-        <v>30</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="E25" s="4">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4">
+        <v>30</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="27" t="s">
+      <c r="M25" s="3"/>
+      <c r="N25" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O25" s="36" t="s">
+      <c r="O25" s="26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+      <c r="P25" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="E26" s="5">
-        <v>9</v>
-      </c>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24">
+      <c r="E26" s="4">
+        <v>9</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
         <v>60</v>
       </c>
-      <c r="H26" s="24">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24" t="s">
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="27" t="s">
+      <c r="M26" s="18"/>
+      <c r="N26" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="O26" s="36" t="s">
+      <c r="O26" s="26" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+      <c r="P26" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="E27" s="5">
-        <v>9</v>
-      </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
+      <c r="E27" s="4">
+        <v>9</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
         <v>60</v>
       </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24" t="s">
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="27" t="s">
+      <c r="M27" s="18"/>
+      <c r="N27" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="O27" s="36" t="s">
+      <c r="O27" s="26" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="P27" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="E28" s="5">
-        <v>9</v>
-      </c>
-      <c r="F28" s="26">
+      <c r="E28" s="4">
+        <v>9</v>
+      </c>
+      <c r="F28" s="21">
         <v>37</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="21">
         <v>8</v>
       </c>
-      <c r="H28" s="26">
-        <v>0</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26" t="s">
+      <c r="H28" s="21">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="27" t="s">
+      <c r="M28" s="20"/>
+      <c r="N28" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="O28" s="36" t="s">
+      <c r="O28" s="26" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30">
+      <c r="P28" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="E29" s="5">
-        <v>9</v>
-      </c>
-      <c r="F29" s="26">
+      <c r="E29" s="4">
+        <v>9</v>
+      </c>
+      <c r="F29" s="21">
         <v>22</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="21">
         <v>8</v>
       </c>
-      <c r="H29" s="26">
-        <v>0</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26" t="s">
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="27" t="s">
+      <c r="M29" s="20"/>
+      <c r="N29" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="O29" s="26" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+      <c r="P29" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="5">
-        <v>9</v>
-      </c>
-      <c r="F30" s="26">
+      <c r="E30" s="4">
+        <v>9</v>
+      </c>
+      <c r="F30" s="21">
         <v>14</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="21">
         <v>16</v>
       </c>
-      <c r="H30" s="26">
-        <v>0</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26" t="s">
+      <c r="H30" s="21">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="27" t="s">
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="O30" s="36" t="s">
+      <c r="O30" s="26" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="30">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="P30" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="E31" s="5">
-        <v>9</v>
-      </c>
-      <c r="F31" s="26">
+      <c r="E31" s="4">
+        <v>9</v>
+      </c>
+      <c r="F31" s="21">
         <v>4</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="21">
         <v>56</v>
       </c>
-      <c r="H31" s="26">
-        <v>0</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26" t="s">
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="27" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="O31" s="36" t="s">
+      <c r="O31" s="26" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="P31" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="5">
-        <v>9</v>
-      </c>
-      <c r="F32" s="5">
-        <v>30</v>
-      </c>
-      <c r="G32" s="5">
-        <v>30</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
+      <c r="E32" s="4">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4">
+        <v>30</v>
+      </c>
+      <c r="G32" s="4">
+        <v>30</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="27" t="s">
+      <c r="M32" s="3"/>
+      <c r="N32" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="P32" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="5">
-        <v>9</v>
-      </c>
-      <c r="F33" s="5">
-        <v>30</v>
-      </c>
-      <c r="G33" s="5">
-        <v>30</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="E33" s="4">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4">
+        <v>30</v>
+      </c>
+      <c r="G33" s="4">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="27" t="s">
+      <c r="M33" s="3"/>
+      <c r="N33" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="P33" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="5">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5">
-        <v>30</v>
-      </c>
-      <c r="G34" s="5">
-        <v>30</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="E34" s="4">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4">
+        <v>30</v>
+      </c>
+      <c r="G34" s="4">
+        <v>30</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="27" t="s">
+      <c r="M34" s="3"/>
+      <c r="N34" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O34" s="36" t="s">
+      <c r="O34" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="P34" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="5">
-        <v>9</v>
-      </c>
-      <c r="F35" s="5">
-        <v>30</v>
-      </c>
-      <c r="G35" s="5">
-        <v>30</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="E35" s="4">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4">
+        <v>30</v>
+      </c>
+      <c r="G35" s="4">
+        <v>30</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="27" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O35" s="36" t="s">
+      <c r="O35" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="P35" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="5">
-        <v>9</v>
-      </c>
-      <c r="F36" s="5">
-        <v>30</v>
-      </c>
-      <c r="G36" s="5">
-        <v>30</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="E36" s="4">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4">
+        <v>30</v>
+      </c>
+      <c r="G36" s="4">
+        <v>30</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="27" t="s">
+      <c r="M36" s="3"/>
+      <c r="N36" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O36" s="36" t="s">
+      <c r="O36" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="P36" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="5">
-        <v>9</v>
-      </c>
-      <c r="F37" s="5">
-        <v>30</v>
-      </c>
-      <c r="G37" s="5">
-        <v>30</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5" t="s">
+      <c r="E37" s="4">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4">
+        <v>30</v>
+      </c>
+      <c r="G37" s="4">
+        <v>30</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="27" t="s">
+      <c r="M37" s="5"/>
+      <c r="N37" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O37" s="36" t="s">
+      <c r="O37" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="P37" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="5">
-        <v>9</v>
-      </c>
-      <c r="F38" s="5">
-        <v>30</v>
-      </c>
-      <c r="G38" s="5">
-        <v>30</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="E38" s="4">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4">
+        <v>30</v>
+      </c>
+      <c r="G38" s="4">
+        <v>30</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="27" t="s">
+      <c r="M38" s="3"/>
+      <c r="N38" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="O38" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="P38" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="5">
-        <v>9</v>
-      </c>
-      <c r="F39" s="5">
-        <v>30</v>
-      </c>
-      <c r="G39" s="5">
-        <v>30</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="E39" s="4">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4">
+        <v>30</v>
+      </c>
+      <c r="G39" s="4">
+        <v>30</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="27" t="s">
+      <c r="M39" s="3"/>
+      <c r="N39" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O39" s="36" t="s">
+      <c r="O39" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="P39" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="5">
-        <v>9</v>
-      </c>
-      <c r="F40" s="8">
-        <v>30</v>
-      </c>
-      <c r="G40" s="8">
-        <v>30</v>
-      </c>
-      <c r="H40" s="8">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8" t="s">
+      <c r="E40" s="4">
+        <v>9</v>
+      </c>
+      <c r="F40" s="7">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7">
+        <v>30</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="27" t="s">
+      <c r="M40" s="8"/>
+      <c r="N40" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O40" s="36" t="s">
+      <c r="O40" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="P40" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="5">
-        <v>9</v>
-      </c>
-      <c r="F41" s="5">
-        <v>30</v>
-      </c>
-      <c r="G41" s="5">
-        <v>30</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
+      <c r="E41" s="4">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4">
+        <v>30</v>
+      </c>
+      <c r="G41" s="4">
+        <v>30</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="27" t="s">
+      <c r="M41" s="3"/>
+      <c r="N41" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O41" s="36" t="s">
+      <c r="O41" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="P41" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="5">
-        <v>9</v>
-      </c>
-      <c r="F42" s="5">
-        <v>30</v>
-      </c>
-      <c r="G42" s="5">
-        <v>30</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="E42" s="4">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4">
+        <v>30</v>
+      </c>
+      <c r="G42" s="4">
+        <v>30</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="27" t="s">
+      <c r="M42" s="3"/>
+      <c r="N42" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O42" s="36" t="s">
+      <c r="O42" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="P42" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="5">
-        <v>9</v>
-      </c>
-      <c r="F43" s="5">
-        <v>30</v>
-      </c>
-      <c r="G43" s="5">
-        <v>30</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="E43" s="4">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4">
+        <v>30</v>
+      </c>
+      <c r="G43" s="4">
+        <v>30</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="27" t="s">
+      <c r="M43" s="3"/>
+      <c r="N43" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O43" s="36" t="s">
+      <c r="O43" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="P43" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="5">
-        <v>9</v>
-      </c>
-      <c r="F44" s="7">
-        <v>30</v>
-      </c>
-      <c r="G44" s="7">
-        <v>30</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
+      <c r="E44" s="4">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6">
+        <v>30</v>
+      </c>
+      <c r="G44" s="6">
+        <v>30</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="27" t="s">
+      <c r="M44" s="5"/>
+      <c r="N44" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="O44" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="P44" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="5">
-        <v>9</v>
-      </c>
-      <c r="F45" s="7">
-        <v>30</v>
-      </c>
-      <c r="G45" s="7">
-        <v>30</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="s">
+      <c r="E45" s="4">
+        <v>9</v>
+      </c>
+      <c r="F45" s="6">
+        <v>30</v>
+      </c>
+      <c r="G45" s="6">
+        <v>30</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="27" t="s">
+      <c r="M45" s="5"/>
+      <c r="N45" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O45" s="36" t="s">
+      <c r="O45" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="P45" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="5">
-        <v>9</v>
-      </c>
-      <c r="F46" s="5">
-        <v>30</v>
-      </c>
-      <c r="G46" s="5">
-        <v>30</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5" t="s">
+      <c r="E46" s="4">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4">
+        <v>30</v>
+      </c>
+      <c r="G46" s="4">
+        <v>30</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="27" t="s">
+      <c r="M46" s="5"/>
+      <c r="N46" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O46" s="36" t="s">
+      <c r="O46" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="P46" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="5">
-        <v>9</v>
-      </c>
-      <c r="F47" s="5">
-        <v>30</v>
-      </c>
-      <c r="G47" s="5">
-        <v>30</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5" t="s">
+      <c r="E47" s="4">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4">
+        <v>30</v>
+      </c>
+      <c r="G47" s="4">
+        <v>30</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="27" t="s">
+      <c r="M47" s="5"/>
+      <c r="N47" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="O47" s="36" t="s">
+      <c r="O47" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="P47" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="5">
-        <v>9</v>
-      </c>
-      <c r="F48" s="5">
-        <v>30</v>
-      </c>
-      <c r="G48" s="5">
-        <v>30</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5" t="s">
+      <c r="E48" s="4">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4">
+        <v>30</v>
+      </c>
+      <c r="G48" s="4">
+        <v>30</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="27" t="s">
+      <c r="M48" s="3"/>
+      <c r="N48" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="O48" s="36" t="s">
+      <c r="O48" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="P48" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="22"/>
+    </row>
+    <row r="49" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="5">
-        <v>9</v>
-      </c>
-      <c r="F49" s="5">
-        <v>30</v>
-      </c>
-      <c r="G49" s="5">
-        <v>30</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="10" t="s">
+      <c r="E49" s="4">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4">
+        <v>30</v>
+      </c>
+      <c r="G49" s="4">
+        <v>30</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="27" t="s">
+      <c r="M49" s="17"/>
+      <c r="N49" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="O49" s="36" t="s">
+      <c r="O49" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="P49" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="22"/>
+    </row>
+    <row r="50" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="5">
-        <v>9</v>
-      </c>
-      <c r="F50" s="5">
-        <v>30</v>
-      </c>
-      <c r="G50" s="5">
-        <v>30</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="E50" s="4">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4">
+        <v>30</v>
+      </c>
+      <c r="G50" s="4">
+        <v>30</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="27" t="s">
+      <c r="M50" s="17"/>
+      <c r="N50" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="O50" s="36" t="s">
+      <c r="O50" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="P50" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="22"/>
+    </row>
+    <row r="51" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="5">
-        <v>9</v>
-      </c>
-      <c r="F51" s="5">
-        <v>30</v>
-      </c>
-      <c r="G51" s="5">
-        <v>30</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="10" t="s">
+      <c r="E51" s="4">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4">
+        <v>30</v>
+      </c>
+      <c r="G51" s="4">
+        <v>30</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="27" t="s">
+      <c r="M51" s="17"/>
+      <c r="N51" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="O51" s="36" t="s">
+      <c r="O51" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="P51" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="22"/>
+    </row>
+    <row r="52" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="5">
-        <v>9</v>
-      </c>
-      <c r="F52" s="5">
-        <v>30</v>
-      </c>
-      <c r="G52" s="5">
-        <v>30</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="E52" s="4">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4">
+        <v>30</v>
+      </c>
+      <c r="G52" s="4">
+        <v>30</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="27" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="O52" s="36" t="s">
+      <c r="O52" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="P52" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="5">
-        <v>9</v>
-      </c>
-      <c r="F53" s="8">
-        <v>30</v>
-      </c>
-      <c r="G53" s="8">
-        <v>30</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8" t="s">
+      <c r="E53" s="4">
+        <v>9</v>
+      </c>
+      <c r="F53" s="7">
+        <v>30</v>
+      </c>
+      <c r="G53" s="7">
+        <v>30</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="27" t="s">
+      <c r="M53" s="17"/>
+      <c r="N53" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="O53" s="36" t="s">
+      <c r="O53" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="P53" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="54" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="5">
-        <v>9</v>
-      </c>
-      <c r="F54" s="5">
-        <v>30</v>
-      </c>
-      <c r="G54" s="5">
-        <v>30</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
+      <c r="E54" s="4">
+        <v>9</v>
+      </c>
+      <c r="F54" s="4">
+        <v>30</v>
+      </c>
+      <c r="G54" s="4">
+        <v>30</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="27" t="s">
+      <c r="M54" s="3"/>
+      <c r="N54" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="O54" s="36" t="s">
+      <c r="O54" s="26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="P54" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q54" s="22"/>
+    </row>
+    <row r="55" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="5">
-        <v>9</v>
-      </c>
-      <c r="F55" s="5">
-        <v>30</v>
-      </c>
-      <c r="G55" s="5">
-        <v>30</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="E55" s="4">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4">
+        <v>30</v>
+      </c>
+      <c r="G55" s="4">
+        <v>30</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="27" t="s">
+      <c r="M55" s="3"/>
+      <c r="N55" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="O55" s="36" t="s">
+      <c r="O55" s="26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="P55" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="22"/>
+    </row>
+    <row r="56" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="5">
-        <v>9</v>
-      </c>
-      <c r="F56" s="5">
-        <v>30</v>
-      </c>
-      <c r="G56" s="5">
-        <v>30</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="E56" s="4">
+        <v>9</v>
+      </c>
+      <c r="F56" s="4">
+        <v>30</v>
+      </c>
+      <c r="G56" s="4">
+        <v>30</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="27" t="s">
+      <c r="M56" s="3"/>
+      <c r="N56" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="O56" s="36" t="s">
+      <c r="O56" s="26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="P56" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q56" s="22"/>
+    </row>
+    <row r="57" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="5">
-        <v>9</v>
-      </c>
-      <c r="F57" s="5">
-        <v>30</v>
-      </c>
-      <c r="G57" s="5">
-        <v>30</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="E57" s="4">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4">
+        <v>30</v>
+      </c>
+      <c r="G57" s="4">
+        <v>30</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="27" t="s">
+      <c r="M57" s="3"/>
+      <c r="N57" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="O57" s="36" t="s">
+      <c r="O57" s="26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="P57" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q57" s="22"/>
+    </row>
+    <row r="58" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="5">
-        <v>9</v>
-      </c>
-      <c r="F58" s="5">
-        <v>30</v>
-      </c>
-      <c r="G58" s="5">
-        <v>30</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
+      <c r="E58" s="4">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4">
+        <v>30</v>
+      </c>
+      <c r="G58" s="4">
+        <v>30</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="L58" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="27" t="s">
+      <c r="M58" s="3"/>
+      <c r="N58" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="O58" s="36" t="s">
+      <c r="O58" s="26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="P58" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q58" s="22"/>
+    </row>
+    <row r="59" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="5">
-        <v>9</v>
-      </c>
-      <c r="F59" s="5">
-        <v>30</v>
-      </c>
-      <c r="G59" s="5">
-        <v>30</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
-      </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="E59" s="4">
+        <v>9</v>
+      </c>
+      <c r="F59" s="4">
+        <v>30</v>
+      </c>
+      <c r="G59" s="4">
+        <v>30</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="L59" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="27" t="s">
+      <c r="M59" s="3"/>
+      <c r="N59" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="O59" s="36" t="s">
+      <c r="O59" s="26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+      <c r="P59" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="22"/>
+    </row>
+    <row r="60" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="5">
-        <v>9</v>
-      </c>
-      <c r="F60" s="13">
-        <v>30</v>
-      </c>
-      <c r="G60" s="13">
-        <v>30</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13" t="s">
+      <c r="E60" s="4">
+        <v>9</v>
+      </c>
+      <c r="F60" s="12">
+        <v>30</v>
+      </c>
+      <c r="G60" s="12">
+        <v>30</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K60" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L60" s="17" t="s">
+      <c r="L60" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M60" s="17"/>
-      <c r="N60" s="27" t="s">
+      <c r="M60" s="15"/>
+      <c r="N60" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="O60" s="36" t="s">
+      <c r="O60" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="P60" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="22"/>
+    </row>
+    <row r="61" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="5">
-        <v>9</v>
-      </c>
-      <c r="F61" s="13">
-        <v>30</v>
-      </c>
-      <c r="G61" s="13">
-        <v>30</v>
-      </c>
-      <c r="H61" s="13">
-        <v>0</v>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13" t="s">
+      <c r="E61" s="4">
+        <v>9</v>
+      </c>
+      <c r="F61" s="12">
+        <v>30</v>
+      </c>
+      <c r="G61" s="12">
+        <v>30</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="K61" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L61" s="17" t="s">
+      <c r="L61" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M61" s="17"/>
-      <c r="N61" s="27" t="s">
+      <c r="M61" s="15"/>
+      <c r="N61" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="O61" s="36" t="s">
+      <c r="O61" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="P61" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="22"/>
+    </row>
+    <row r="62" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E62" s="5">
-        <v>9</v>
-      </c>
-      <c r="F62" s="13">
-        <v>30</v>
-      </c>
-      <c r="G62" s="13">
-        <v>30</v>
-      </c>
-      <c r="H62" s="13">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13" t="s">
+      <c r="E62" s="4">
+        <v>9</v>
+      </c>
+      <c r="F62" s="12">
+        <v>30</v>
+      </c>
+      <c r="G62" s="12">
+        <v>30</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L62" s="17" t="s">
+      <c r="L62" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="17"/>
-      <c r="N62" s="27" t="s">
+      <c r="M62" s="15"/>
+      <c r="N62" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="O62" s="36" t="s">
+      <c r="O62" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="P62" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="22"/>
+    </row>
+    <row r="63" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="5">
-        <v>9</v>
-      </c>
-      <c r="F63" s="13">
-        <v>30</v>
-      </c>
-      <c r="G63" s="13">
-        <v>30</v>
-      </c>
-      <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13" t="s">
+      <c r="E63" s="4">
+        <v>9</v>
+      </c>
+      <c r="F63" s="12">
+        <v>30</v>
+      </c>
+      <c r="G63" s="12">
+        <v>30</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K63" s="13" t="s">
+      <c r="K63" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L63" s="17" t="s">
+      <c r="L63" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="M63" s="17"/>
-      <c r="N63" s="27" t="s">
+      <c r="M63" s="15"/>
+      <c r="N63" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="O63" s="36" t="s">
+      <c r="O63" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="P63" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="22"/>
+    </row>
+    <row r="64" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E64" s="5">
-        <v>9</v>
-      </c>
-      <c r="F64" s="13">
-        <v>30</v>
-      </c>
-      <c r="G64" s="13">
-        <v>30</v>
-      </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13" t="s">
+      <c r="E64" s="4">
+        <v>9</v>
+      </c>
+      <c r="F64" s="12">
+        <v>30</v>
+      </c>
+      <c r="G64" s="12">
+        <v>30</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="K64" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L64" s="17" t="s">
+      <c r="L64" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="M64" s="17"/>
-      <c r="N64" s="27" t="s">
+      <c r="M64" s="15"/>
+      <c r="N64" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="O64" s="36" t="s">
+      <c r="O64" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="P64" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q64" s="22"/>
+    </row>
+    <row r="65" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="5">
-        <v>9</v>
-      </c>
-      <c r="F65" s="13">
-        <v>30</v>
-      </c>
-      <c r="G65" s="13">
-        <v>30</v>
-      </c>
-      <c r="H65" s="13">
-        <v>0</v>
-      </c>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13" t="s">
+      <c r="E65" s="4">
+        <v>9</v>
+      </c>
+      <c r="F65" s="12">
+        <v>30</v>
+      </c>
+      <c r="G65" s="12">
+        <v>30</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="K65" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L65" s="17" t="s">
+      <c r="L65" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="M65" s="17"/>
-      <c r="N65" s="27" t="s">
+      <c r="M65" s="15"/>
+      <c r="N65" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="O65" s="36" t="s">
+      <c r="O65" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="P65" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="22"/>
+    </row>
+    <row r="66" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="5">
-        <v>9</v>
-      </c>
-      <c r="F66" s="5">
-        <v>30</v>
-      </c>
-      <c r="G66" s="5">
-        <v>30</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="E66" s="4">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4">
+        <v>30</v>
+      </c>
+      <c r="G66" s="4">
+        <v>30</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="27" t="s">
+      <c r="M66" s="3"/>
+      <c r="N66" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O66" s="36" t="s">
+      <c r="O66" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E67" s="5">
-        <v>9</v>
-      </c>
-      <c r="F67" s="8">
-        <v>30</v>
-      </c>
-      <c r="G67" s="8">
-        <v>30</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="E67" s="4">
+        <v>9</v>
+      </c>
+      <c r="F67" s="7">
+        <v>30</v>
+      </c>
+      <c r="G67" s="7">
+        <v>30</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="27" t="s">
+      <c r="M67" s="17"/>
+      <c r="N67" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O67" s="36" t="s">
+      <c r="O67" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E68" s="5">
-        <v>9</v>
-      </c>
-      <c r="F68" s="5">
-        <v>30</v>
-      </c>
-      <c r="G68" s="5">
-        <v>30</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="E68" s="4">
+        <v>9</v>
+      </c>
+      <c r="F68" s="4">
+        <v>30</v>
+      </c>
+      <c r="G68" s="4">
+        <v>30</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="L68" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M68" s="4"/>
-      <c r="N68" s="27" t="s">
+      <c r="M68" s="3"/>
+      <c r="N68" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O68" s="36" t="s">
+      <c r="O68" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E69" s="5">
-        <v>9</v>
-      </c>
-      <c r="F69" s="5">
-        <v>30</v>
-      </c>
-      <c r="G69" s="5">
-        <v>30</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="E69" s="4">
+        <v>9</v>
+      </c>
+      <c r="F69" s="4">
+        <v>30</v>
+      </c>
+      <c r="G69" s="4">
+        <v>30</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="27" t="s">
+      <c r="M69" s="3"/>
+      <c r="N69" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O69" s="36" t="s">
+      <c r="O69" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E70" s="5">
-        <v>9</v>
-      </c>
-      <c r="F70" s="5">
-        <v>30</v>
-      </c>
-      <c r="G70" s="5">
-        <v>30</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0</v>
-      </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="E70" s="4">
+        <v>9</v>
+      </c>
+      <c r="F70" s="4">
+        <v>30</v>
+      </c>
+      <c r="G70" s="4">
+        <v>30</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="L70" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="27" t="s">
+      <c r="M70" s="3"/>
+      <c r="N70" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O70" s="36" t="s">
+      <c r="O70" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E71" s="5">
-        <v>9</v>
-      </c>
-      <c r="F71" s="5">
-        <v>30</v>
-      </c>
-      <c r="G71" s="5">
-        <v>30</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0</v>
-      </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="E71" s="4">
+        <v>9</v>
+      </c>
+      <c r="F71" s="4">
+        <v>30</v>
+      </c>
+      <c r="G71" s="4">
+        <v>30</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="L71" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M71" s="4"/>
-      <c r="N71" s="27" t="s">
+      <c r="M71" s="3"/>
+      <c r="N71" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O71" s="36" t="s">
+      <c r="O71" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="5">
-        <v>9</v>
-      </c>
-      <c r="F72" s="5">
-        <v>30</v>
-      </c>
-      <c r="G72" s="5">
-        <v>30</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0</v>
-      </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5" t="s">
+      <c r="E72" s="4">
+        <v>9</v>
+      </c>
+      <c r="F72" s="4">
+        <v>30</v>
+      </c>
+      <c r="G72" s="4">
+        <v>30</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="L72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M72" s="4"/>
-      <c r="N72" s="27" t="s">
+      <c r="M72" s="3"/>
+      <c r="N72" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O72" s="36" t="s">
+      <c r="O72" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="5">
-        <v>9</v>
-      </c>
-      <c r="F73" s="7">
-        <v>30</v>
-      </c>
-      <c r="G73" s="7">
-        <v>30</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
+        <v>9</v>
+      </c>
+      <c r="F73" s="6">
+        <v>30</v>
+      </c>
+      <c r="G73" s="6">
+        <v>30</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L73" s="17" t="s">
+      <c r="L73" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M73" s="6"/>
-      <c r="N73" s="27" t="s">
+      <c r="M73" s="5"/>
+      <c r="N73" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O73" s="36" t="s">
+      <c r="O73" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E74" s="5">
-        <v>9</v>
-      </c>
-      <c r="F74" s="5">
-        <v>30</v>
-      </c>
-      <c r="G74" s="5">
-        <v>30</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="E74" s="4">
+        <v>9</v>
+      </c>
+      <c r="F74" s="4">
+        <v>30</v>
+      </c>
+      <c r="G74" s="4">
+        <v>30</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="L74" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M74" s="4"/>
-      <c r="N74" s="27" t="s">
+      <c r="M74" s="3"/>
+      <c r="N74" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O74" s="36" t="s">
+      <c r="O74" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="5">
-        <v>9</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="E75" s="4">
+        <v>9</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K75" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="L75" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M75" s="4"/>
-      <c r="N75" s="27" t="s">
+      <c r="M75" s="3"/>
+      <c r="N75" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O75" s="36" t="s">
+      <c r="O75" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E76" s="5">
-        <v>9</v>
-      </c>
-      <c r="F76" s="5">
-        <v>30</v>
-      </c>
-      <c r="G76" s="5">
-        <v>30</v>
-      </c>
-      <c r="H76" s="5">
-        <v>0</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="E76" s="4">
+        <v>9</v>
+      </c>
+      <c r="F76" s="4">
+        <v>30</v>
+      </c>
+      <c r="G76" s="4">
+        <v>30</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="L76" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M76" s="4"/>
-      <c r="N76" s="27" t="s">
+      <c r="M76" s="3"/>
+      <c r="N76" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O76" s="36" t="s">
+      <c r="O76" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="5">
-        <v>9</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="E77" s="4">
+        <v>9</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="L77" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="27" t="s">
+      <c r="M77" s="3"/>
+      <c r="N77" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O77" s="36" t="s">
+      <c r="O77" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="5">
-        <v>9</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="E78" s="4">
+        <v>9</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="27" t="s">
+      <c r="M78" s="3"/>
+      <c r="N78" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O78" s="36" t="s">
+      <c r="O78" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E79" s="5">
-        <v>9</v>
-      </c>
-      <c r="F79" s="13">
-        <v>30</v>
-      </c>
-      <c r="G79" s="13">
-        <v>30</v>
-      </c>
-      <c r="H79" s="13">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13" t="s">
+      <c r="E79" s="4">
+        <v>9</v>
+      </c>
+      <c r="F79" s="12">
+        <v>30</v>
+      </c>
+      <c r="G79" s="12">
+        <v>30</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0</v>
+      </c>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="K79" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L79" s="17" t="s">
+      <c r="L79" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M79" s="17"/>
-      <c r="N79" s="27" t="s">
+      <c r="M79" s="15"/>
+      <c r="N79" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O79" s="36" t="s">
+      <c r="O79" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E80" s="5">
-        <v>9</v>
-      </c>
-      <c r="F80" s="5">
-        <v>30</v>
-      </c>
-      <c r="G80" s="5">
-        <v>30</v>
-      </c>
-      <c r="H80" s="5">
-        <v>0</v>
-      </c>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="E80" s="4">
+        <v>9</v>
+      </c>
+      <c r="F80" s="4">
+        <v>30</v>
+      </c>
+      <c r="G80" s="4">
+        <v>30</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K80" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M80" s="17"/>
-      <c r="N80" s="27" t="s">
+      <c r="M80" s="15"/>
+      <c r="N80" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O80" s="36" t="s">
+      <c r="O80" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E81" s="5">
-        <v>9</v>
-      </c>
-      <c r="F81" s="5">
-        <v>30</v>
-      </c>
-      <c r="G81" s="5">
-        <v>30</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
+      <c r="E81" s="4">
+        <v>9</v>
+      </c>
+      <c r="F81" s="4">
+        <v>30</v>
+      </c>
+      <c r="G81" s="4">
+        <v>30</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="K81" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M81" s="17"/>
-      <c r="N81" s="27" t="s">
+      <c r="M81" s="15"/>
+      <c r="N81" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O81" s="36" t="s">
+      <c r="O81" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E82" s="5">
-        <v>9</v>
-      </c>
-      <c r="F82" s="13">
-        <v>30</v>
-      </c>
-      <c r="G82" s="13">
-        <v>30</v>
-      </c>
-      <c r="H82" s="13">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13" t="s">
+      <c r="E82" s="4">
+        <v>9</v>
+      </c>
+      <c r="F82" s="12">
+        <v>30</v>
+      </c>
+      <c r="G82" s="12">
+        <v>30</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="K82" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M82" s="17"/>
-      <c r="N82" s="27" t="s">
+      <c r="M82" s="15"/>
+      <c r="N82" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O82" s="36" t="s">
+      <c r="O82" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="5">
-        <v>9</v>
-      </c>
-      <c r="F83" s="5">
-        <v>30</v>
-      </c>
-      <c r="G83" s="5">
-        <v>30</v>
-      </c>
-      <c r="H83" s="5">
-        <v>0</v>
-      </c>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="E83" s="4">
+        <v>9</v>
+      </c>
+      <c r="F83" s="4">
+        <v>30</v>
+      </c>
+      <c r="G83" s="4">
+        <v>30</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="5" t="s">
+      <c r="K83" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="L83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M83" s="17"/>
-      <c r="N83" s="27" t="s">
+      <c r="M83" s="15"/>
+      <c r="N83" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O83" s="36" t="s">
+      <c r="O83" s="26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E84" s="5">
-        <v>9</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0</v>
-      </c>
-      <c r="G84" s="5">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5">
+      <c r="E84" s="4">
+        <v>9</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
         <v>60</v>
       </c>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="I84" s="4"/>
+      <c r="J84" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="L84" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="27" t="s">
+      <c r="M84" s="3"/>
+      <c r="N84" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O84" s="36" t="s">
+      <c r="O84" s="26" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="P84" s="22">
+        <v>4</v>
+      </c>
+      <c r="Q84" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E85" s="5">
-        <v>9</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5">
+      <c r="E85" s="4">
+        <v>9</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
         <v>60</v>
       </c>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="I85" s="4"/>
+      <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K85" s="5" t="s">
+      <c r="K85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L85" s="35" t="s">
+      <c r="L85" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="27" t="s">
+      <c r="M85" s="3"/>
+      <c r="N85" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O85" s="36" t="s">
+      <c r="O85" s="26" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="18">
+      <c r="P85" s="22">
+        <v>4</v>
+      </c>
+      <c r="Q85" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E86" s="5">
-        <v>9</v>
-      </c>
-      <c r="F86" s="20">
-        <v>0</v>
-      </c>
-      <c r="G86" s="20">
-        <v>0</v>
-      </c>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20">
+      <c r="E86" s="28">
+        <v>9</v>
+      </c>
+      <c r="F86" s="28">
+        <v>0</v>
+      </c>
+      <c r="G86" s="28">
+        <v>0</v>
+      </c>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28">
         <v>180</v>
       </c>
-      <c r="J86" s="20" t="s">
+      <c r="J86" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K86" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="L86" s="19" t="s">
+      <c r="L86" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="28" t="s">
+      <c r="M86" s="27"/>
+      <c r="N86" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O86" s="37" t="s">
+      <c r="O86" s="26" t="s">
         <v>223</v>
+      </c>
+      <c r="P86" s="22">
+        <v>4</v>
+      </c>
+      <c r="Q86" s="22">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="L50">
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53">
     <cfRule type="expression" dxfId="11" priority="8">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
+  <conditionalFormatting sqref="J46:J47">
     <cfRule type="expression" dxfId="10" priority="7">
-      <formula>#REF!=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J47">
-    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$K46&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:M47 M73 C48:D86 B2:M2 N3:N86 B27:B86 F3:M45 F48:M72 F74:M86 F73:K73 E3:E86 B3:D26 C27:D45">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="K46:M47 M73 C48:D86 B2:M2 N3:N86 B27:B86 F3:M45 F48:M72 F74:M86 F73:K73 B3:D26 C27:D45 E3:E86">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C86 B2:C26 C27:C45 B27:B86">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L70 L67">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50 L73 L53">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>#REF!&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:D47 F46:J47">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:O86">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O25">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O25">
+  <conditionalFormatting sqref="P2:Q86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=1</formula>
     </cfRule>
@@ -5531,29 +5789,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="07db5020-ba8e-48bf-aa17-fbace2a70736">
-      <UserInfo>
-        <DisplayName>CAP K24T-TEAM01 Members</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020A95A7398140C45A2F719D38434B23A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f464c4684f4805cd2f27ee87272a526">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07db5020-ba8e-48bf-aa17-fbace2a70736" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1a8c984c74c8b52243a5f41979946bd" ns2:_="">
     <xsd:import namespace="07db5020-ba8e-48bf-aa17-fbace2a70736"/>
@@ -5701,25 +5936,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179DDC9E-E391-4AD2-A488-D9C201286EF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="07db5020-ba8e-48bf-aa17-fbace2a70736"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="07db5020-ba8e-48bf-aa17-fbace2a70736">
+      <UserInfo>
+        <DisplayName>CAP K24T-TEAM01 Members</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48999028-4F3E-48D7-8FDD-8CE421B12A65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648878AA-48B2-4081-A1D0-3EB795A895EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5735,4 +5975,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179DDC9E-E391-4AD2-A488-D9C201286EF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07db5020-ba8e-48bf-aa17-fbace2a70736"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48999028-4F3E-48D7-8FDD-8CE421B12A65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>